--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12270" tabRatio="606"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="606" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="198">
   <si>
     <t>Initials</t>
   </si>
@@ -141,6 +141,9 @@
     <t>Dates before current date</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>US02</t>
   </si>
   <si>
@@ -432,6 +435,12 @@
     <t>Sprint 4</t>
   </si>
   <si>
+    <t>23/10</t>
+  </si>
+  <si>
+    <t>20/11</t>
+  </si>
+  <si>
     <t>Est Size</t>
   </si>
   <si>
@@ -450,7 +459,25 @@
     <t>Coding</t>
   </si>
   <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Communicate frequently</t>
+  </si>
+  <si>
+    <t>Excahange ideas about program structures and bugs</t>
+  </si>
+  <si>
     <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Start coding severay hours before deadline</t>
   </si>
   <si>
     <t>Story Description</t>
@@ -595,13 +622,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="m/d"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -641,7 +669,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,18 +703,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,16 +742,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,7 +774,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,48 +795,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -804,13 +832,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,43 +886,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,7 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,13 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,67 +922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,7 +940,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,20 +1020,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,17 +1065,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,15 +1099,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,170 +1117,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1256,24 +1284,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1538,25 +1578,39 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Burndown!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>m/d</c:formatCode>
+            <c:strRef>
+              <c:f>Burndown!$B$2:$B$7</c:f>
+              <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" c:formatCode="m/d">
-                  <c:v>42270</c:v>
+                  <c:v>9/24</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="1" c:formatCode="m/d">
+                  <c:v>9/10</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="m/d">
+                  <c:v>23/10</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="m/d">
+                  <c:v>6/11</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="m/d">
+                  <c:v>20/11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$7</c:f>
+              <c:f>Burndown!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1606,6 +1660,7 @@
         <c:crossAx val="-467594224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
@@ -2076,13 +2131,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>948267</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>160867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>397934</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
@@ -2093,8 +2148,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="825500" y="1456055"/>
-        <a:ext cx="4785360" cy="2617470"/>
+        <a:off x="1663700" y="1456055"/>
+        <a:ext cx="5172710" cy="2617470"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2429,7 +2484,7 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2485,7 +2540,7 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
@@ -2502,7 +2557,7 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="25" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
@@ -2519,7 +2574,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="25" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
@@ -2536,7 +2591,7 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="25" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
@@ -2573,8 +2628,8 @@
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:D42"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2596,14 +2651,14 @@
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2616,33 +2671,42 @@
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2650,71 +2714,80 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2722,10 +2795,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>15</v>
@@ -2733,90 +2806,90 @@
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2824,10 +2897,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>20</v>
@@ -2835,146 +2908,146 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2982,10 +3055,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>10</v>
@@ -3004,7 +3077,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="A14" sqref="A14:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -3014,174 +3087,174 @@
     <col min="3" max="3" width="15.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="6.83333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>125</v>
+      <c r="B14" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="16" t="s">
         <v>130</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="17">
+        <v>132</v>
+      </c>
+      <c r="B15" s="22">
         <v>41065</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="23">
         <v>24</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="23">
         <v>0</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="14"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="17">
+        <v>133</v>
+      </c>
+      <c r="B16" s="22">
         <v>41078</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="23">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="23">
         <v>250</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="23">
         <v>120</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="15">
         <f>(E16-E15)/F16*60</f>
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="17">
+        <v>134</v>
+      </c>
+      <c r="B17" s="22">
         <v>41092</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="23">
         <v>12</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D19" si="0">C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="23">
         <v>480</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="24">
         <v>135</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="15">
         <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
         <v>102.222222222222</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="17">
+        <v>135</v>
+      </c>
+      <c r="B18" s="22">
         <v>41106</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="23">
         <v>6</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="23">
         <v>740</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="24">
         <v>160</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="15">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="17">
+        <v>136</v>
+      </c>
+      <c r="B19" s="22">
         <v>41120</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="23">
         <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="23">
         <v>1100</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="24">
         <v>145</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="15">
         <f t="shared" si="1"/>
         <v>148.965517241379</v>
       </c>
@@ -3197,27 +3270,27 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="10"/>
-    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="14.4166666666667" customWidth="1"/>
-    <col min="4" max="4" width="7.16666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.83333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.8333333333333" style="10"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="14.4166666666667" customWidth="1"/>
+    <col min="5" max="5" width="7.16666666666667" customWidth="1"/>
+    <col min="6" max="6" width="6.83333333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3229,20 +3302,97 @@
       <c r="E1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="10">
+      <c r="G1" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="14">
         <v>42270</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="18">
         <v>41</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18">
         <v>0</v>
       </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="14">
+        <v>42256</v>
+      </c>
+      <c r="C3" s="18">
+        <v>31</v>
+      </c>
+      <c r="D3" s="18">
+        <v>10</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18">
+        <v>150</v>
+      </c>
+      <c r="G3" s="20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="14">
+        <v>42165</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="14"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3255,10 +3405,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3287,22 +3437,22 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3313,7 +3463,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -3321,19 +3471,28 @@
       <c r="F2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" s="14">
+        <v>42285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3341,19 +3500,28 @@
       <c r="F3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="14">
+        <v>42285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3361,19 +3529,28 @@
       <c r="F4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4" s="14">
+        <v>42285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -3381,19 +3558,22 @@
       <c r="F5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="I5" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -3401,19 +3581,28 @@
       <c r="F6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6" s="14">
+        <v>42285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -3421,19 +3610,28 @@
       <c r="F7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" s="14">
+        <v>42285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -3441,19 +3639,28 @@
       <c r="F8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8" s="14">
+        <v>42285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -3461,19 +3668,28 @@
       <c r="F9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9" s="14">
+        <v>42285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -3481,19 +3697,24 @@
       <c r="F10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -3501,10 +3722,44 @@
       <c r="F11">
         <v>60</v>
       </c>
+      <c r="I11" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" ht="38" customHeight="1" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
-        <v>142</v>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3542,19 +3797,19 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3592,19 +3847,19 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3641,19 +3896,19 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3685,7 +3940,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" ht="31.5" spans="1:3">
@@ -3696,463 +3951,463 @@
         <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" ht="31.5" spans="1:3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" ht="47.25" spans="1:3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" ht="31.5" spans="1:3">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" ht="31.5" spans="1:3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" ht="31.5" spans="1:3">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" ht="31.5" spans="1:3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" ht="47.25" spans="1:3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" ht="63" spans="1:3">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" ht="31.5" spans="1:3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" ht="31.5" spans="1:3">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:3">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:3">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" ht="31.5" spans="1:3">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" ht="31.5" spans="1:3">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" ht="31.5" spans="1:3">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" ht="31.5" spans="1:3">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" ht="47.25" spans="1:3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" ht="31.5" spans="1:3">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" ht="110.25" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" ht="15.75" spans="1:3">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" ht="31.5" spans="1:3">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="1:3">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" ht="15.75" spans="1:3">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" ht="31.5" spans="1:3">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:3">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" ht="31.5" spans="1:3">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" ht="47.25" spans="1:3">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" ht="31.5" spans="1:3">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" ht="31.5" spans="1:3">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" ht="31.5" spans="1:3">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" ht="31.5" spans="1:3">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" ht="31.5" spans="1:3">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" ht="31.5" spans="1:3">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" ht="31.5" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" ht="31.5" spans="1:3">
       <c r="A43" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="8" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="606" activeTab="1"/>
+    <workbookView windowWidth="19440" windowHeight="11550" tabRatio="606" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="197">
   <si>
     <t>Initials</t>
   </si>
@@ -186,6 +186,9 @@
     <t>Birth before marriage of parents</t>
   </si>
   <si>
+    <t>coding</t>
+  </si>
+  <si>
     <t>US09</t>
   </si>
   <si>
@@ -456,10 +459,7 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>coding</t>
+    <t>US42</t>
   </si>
   <si>
     <t>Review Results</t>
@@ -607,9 +607,6 @@
   </si>
   <si>
     <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>US42</t>
   </si>
   <si>
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
@@ -624,12 +621,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="m/d"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="m/d"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -683,105 +680,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,8 +702,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -832,13 +829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,25 +853,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,7 +901,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,54 +931,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -964,13 +943,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,31 +967,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,17 +1032,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,6 +1077,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1083,37 +1100,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,149 +1120,149 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1284,27 +1281,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1642,7 +1636,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2540,7 +2534,7 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
@@ -2557,7 +2551,7 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
@@ -2574,7 +2568,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
@@ -2591,7 +2585,7 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
@@ -2628,16 +2622,16 @@
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.48333333333333" customWidth="1"/>
     <col min="2" max="2" width="7.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="27.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="6.66666666666667" style="11" customWidth="1"/>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
+    <col min="4" max="4" width="6.66666666666667" style="10" customWidth="1"/>
     <col min="5" max="5" width="7.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2668,7 +2662,7 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
@@ -2685,7 +2679,7 @@
       <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
@@ -2702,14 +2696,14 @@
       <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2719,8 +2713,11 @@
       <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2733,7 +2730,7 @@
       <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
@@ -2750,7 +2747,7 @@
       <c r="C7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
@@ -2767,287 +2764,383 @@
       <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2</v>
+      </c>
       <c r="B9" t="s">
         <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
+      <c r="D9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2</v>
+      </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2</v>
+      </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
+        <v>62</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2</v>
+      </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
+        <v>64</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2</v>
+      </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2</v>
+      </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+        <v>68</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2</v>
+      </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
+        <v>70</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>2</v>
+      </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
+        <v>72</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>2</v>
+      </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>2</v>
+      </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3055,12 +3148,12 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3082,7 +3175,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="10"/>
+    <col min="1" max="1" width="10.8333333333333" style="11"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="15.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
@@ -3091,33 +3184,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>120</v>
+      <c r="A1" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
-        <v>121</v>
+      <c r="A2" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
-        <v>122</v>
+      <c r="A3" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
-        <v>123</v>
+      <c r="A5" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
-        <v>124</v>
+      <c r="A6" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
-        <v>125</v>
+      <c r="A8" s="11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
@@ -3125,58 +3218,58 @@
         <v>32</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="22">
+        <v>133</v>
+      </c>
+      <c r="B15" s="21">
         <v>41065</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>24</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>0</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="22">
+        <v>134</v>
+      </c>
+      <c r="B16" s="21">
         <v>41078</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>250</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>120</v>
       </c>
       <c r="G16" s="15">
@@ -3185,23 +3278,23 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="22">
+      <c r="A17" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="21">
         <v>41092</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>12</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D19" si="0">C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>480</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>135</v>
       </c>
       <c r="G17" s="15">
@@ -3210,23 +3303,23 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="22">
+      <c r="A18" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="21">
         <v>41106</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>6</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>740</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <v>160</v>
       </c>
       <c r="G18" s="15">
@@ -3235,23 +3328,23 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="22">
+      <c r="A19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="21">
         <v>41120</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>1100</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>145</v>
       </c>
       <c r="G19" s="15">
@@ -3273,12 +3366,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="10.8333333333333" style="10"/>
+    <col min="2" max="2" width="10.8333333333333" style="11"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="14.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="7.16666666666667" customWidth="1"/>
@@ -3291,108 +3384,108 @@
         <v>32</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B2" s="14">
         <v>42270</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="10">
         <v>41</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
         <v>0</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="14">
         <v>42256</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="10">
         <v>31</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="10">
         <v>10</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
         <v>150</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10" t="s">
-        <v>134</v>
+      <c r="A4" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="21"/>
+        <v>138</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10" t="s">
-        <v>135</v>
+      <c r="A5" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="B5" s="14">
         <v>42165</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="21"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10" t="s">
-        <v>136</v>
+      <c r="A6" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="21"/>
+        <v>139</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="14"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="21"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3408,7 +3501,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3420,7 +3513,7 @@
     <col min="6" max="6" width="9.41666666666667" customWidth="1"/>
     <col min="7" max="7" width="9.08333333333333" customWidth="1"/>
     <col min="8" max="8" width="9.83333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.8333333333333" style="10"/>
+    <col min="9" max="9" width="10.8333333333333" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3437,19 +3530,19 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3459,11 +3552,11 @@
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>144</v>
+      <c r="D2" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -3488,11 +3581,11 @@
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>144</v>
+      <c r="D3" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3517,11 +3610,11 @@
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>144</v>
+      <c r="D4" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3546,11 +3639,11 @@
       <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>144</v>
+      <c r="D5" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -3558,8 +3651,14 @@
       <c r="F5">
         <v>30</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>145</v>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5" s="14">
+        <v>42285</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3569,11 +3668,11 @@
       <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>144</v>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -3598,11 +3697,11 @@
       <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>144</v>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -3627,11 +3726,11 @@
       <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>144</v>
+      <c r="D8" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -3651,16 +3750,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>144</v>
+      <c r="D9" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -3680,16 +3779,16 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>144</v>
+      <c r="D10" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -3697,24 +3796,28 @@
       <c r="F10">
         <v>40</v>
       </c>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10" s="14" t="s">
-        <v>145</v>
+      <c r="G10">
+        <v>37</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10" s="14">
+        <v>42285</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>144</v>
+      <c r="D11" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -3723,7 +3826,7 @@
         <v>60</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -3772,15 +3875,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="12.0833333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="7.83333333333333" customWidth="1"/>
+    <col min="4" max="4" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:9">
@@ -3797,19 +3902,219 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3847,19 +4152,19 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3896,19 +4201,19 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3922,8 +4227,8 @@
   <sheetPr/>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -4033,10 +4338,10 @@
     </row>
     <row r="10" ht="31.5" spans="1:3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>161</v>
@@ -4044,10 +4349,10 @@
     </row>
     <row r="11" ht="31.5" spans="1:3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>162</v>
@@ -4055,10 +4360,10 @@
     </row>
     <row r="12" ht="31.5" spans="1:3">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>163</v>
@@ -4066,10 +4371,10 @@
     </row>
     <row r="13" ht="47.25" spans="1:3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>164</v>
@@ -4077,10 +4382,10 @@
     </row>
     <row r="14" ht="63" spans="1:3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>165</v>
@@ -4088,10 +4393,10 @@
     </row>
     <row r="15" ht="31.5" spans="1:3">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>166</v>
@@ -4099,10 +4404,10 @@
     </row>
     <row r="16" ht="15.75" spans="1:3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>167</v>
@@ -4110,10 +4415,10 @@
     </row>
     <row r="17" ht="31.5" spans="1:3">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>168</v>
@@ -4121,10 +4426,10 @@
     </row>
     <row r="18" ht="15.75" spans="1:3">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>169</v>
@@ -4132,10 +4437,10 @@
     </row>
     <row r="19" ht="15.75" spans="1:3">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>170</v>
@@ -4143,10 +4448,10 @@
     </row>
     <row r="20" ht="15.75" spans="1:3">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>171</v>
@@ -4154,10 +4459,10 @@
     </row>
     <row r="21" ht="31.5" spans="1:3">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>172</v>
@@ -4165,10 +4470,10 @@
     </row>
     <row r="22" ht="31.5" spans="1:3">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>173</v>
@@ -4176,10 +4481,10 @@
     </row>
     <row r="23" ht="31.5" spans="1:3">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>174</v>
@@ -4187,10 +4492,10 @@
     </row>
     <row r="24" ht="31.5" spans="1:3">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>175</v>
@@ -4198,10 +4503,10 @@
     </row>
     <row r="25" ht="47.25" spans="1:3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>176</v>
@@ -4209,10 +4514,10 @@
     </row>
     <row r="26" ht="31.5" spans="1:3">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>177</v>
@@ -4220,10 +4525,10 @@
     </row>
     <row r="27" ht="110.25" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>178</v>
@@ -4231,10 +4536,10 @@
     </row>
     <row r="28" ht="15.75" spans="1:3">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>179</v>
@@ -4242,10 +4547,10 @@
     </row>
     <row r="29" ht="31.5" spans="1:3">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>180</v>
@@ -4253,10 +4558,10 @@
     </row>
     <row r="30" ht="15.75" spans="1:3">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>181</v>
@@ -4264,10 +4569,10 @@
     </row>
     <row r="31" ht="15.75" spans="1:3">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>182</v>
@@ -4275,10 +4580,10 @@
     </row>
     <row r="32" ht="31.5" spans="1:3">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>183</v>
@@ -4286,10 +4591,10 @@
     </row>
     <row r="33" ht="15.75" spans="1:3">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>184</v>
@@ -4297,10 +4602,10 @@
     </row>
     <row r="34" ht="31.5" spans="1:3">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>185</v>
@@ -4308,10 +4613,10 @@
     </row>
     <row r="35" ht="47.25" spans="1:3">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>186</v>
@@ -4319,10 +4624,10 @@
     </row>
     <row r="36" ht="31.5" spans="1:3">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>187</v>
@@ -4330,10 +4635,10 @@
     </row>
     <row r="37" ht="31.5" spans="1:3">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>188</v>
@@ -4341,10 +4646,10 @@
     </row>
     <row r="38" ht="31.5" spans="1:3">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>189</v>
@@ -4352,10 +4657,10 @@
     </row>
     <row r="39" ht="31.5" spans="1:3">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>190</v>
@@ -4363,10 +4668,10 @@
     </row>
     <row r="40" ht="31.5" spans="1:3">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>191</v>
@@ -4374,10 +4679,10 @@
     </row>
     <row r="41" ht="31.5" spans="1:3">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>192</v>
@@ -4385,7 +4690,7 @@
     </row>
     <row r="42" ht="31.5" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>193</v>
@@ -4396,18 +4701,18 @@
     </row>
     <row r="43" ht="31.5" spans="1:3">
       <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="19440" windowHeight="11550" tabRatio="606" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="19440" windowHeight="11550" tabRatio="606" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2622,7 +2622,7 @@
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:E19"/>
     </sheetView>
   </sheetViews>
@@ -3501,7 +3501,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3877,7 +3877,7 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -4228,7 +4228,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="H63" sqref="H62:H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="2"/>

--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="19440" windowHeight="11550" tabRatio="606" activeTab="1"/>
+    <workbookView windowWidth="19440" windowHeight="11550" tabRatio="606" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="198">
   <si>
     <t>Initials</t>
   </si>
@@ -381,226 +381,229 @@
     <t>Include input line numbers</t>
   </si>
   <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>23/10</t>
+  </si>
+  <si>
+    <t>20/11</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Communicate frequently</t>
+  </si>
+  <si>
+    <t>Excahange ideas about program structures and bugs</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Start coding severay hours before deadline</t>
+  </si>
+  <si>
+    <t>10/14</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
     <t>US41</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>23/10</t>
-  </si>
-  <si>
-    <t>20/11</t>
-  </si>
-  <si>
-    <t>Est Size</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-  </si>
-  <si>
-    <t>Act Size</t>
-  </si>
-  <si>
-    <t>Act Time</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Communicate frequently</t>
-  </si>
-  <si>
-    <t>Excahange ideas about program structures and bugs</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Start coding severay hours before deadline</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
   </si>
   <si>
     <t>Include partial dates</t>
@@ -620,13 +623,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="m/d"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -668,50 +671,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -732,8 +691,67 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,15 +766,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -771,28 +796,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -801,10 +804,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -829,37 +832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +856,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,73 +976,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,31 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,28 +1035,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,11 +1068,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,15 +1088,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,155 +1106,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1284,29 +1287,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2534,7 +2543,7 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="26" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
@@ -2551,7 +2560,7 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
@@ -2568,7 +2577,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
@@ -2585,7 +2594,7 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
@@ -2623,7 +2632,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2878,7 +2887,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2895,7 +2904,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3035,7 +3044,7 @@
       <c r="B28" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3043,7 +3052,7 @@
       <c r="B29" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="14" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3051,7 +3060,7 @@
       <c r="B30" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="14" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3059,7 +3068,7 @@
       <c r="B31" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="14" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3067,7 +3076,7 @@
       <c r="B32" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="14" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3075,7 +3084,7 @@
       <c r="B33" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="14" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3083,7 +3092,7 @@
       <c r="B34" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3091,7 +3100,7 @@
       <c r="B35" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="14" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3099,7 +3108,7 @@
       <c r="B36" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="14" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3107,7 +3116,7 @@
       <c r="B37" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="14" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3115,7 +3124,7 @@
       <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="14" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3123,7 +3132,7 @@
       <c r="B39" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="14" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3131,7 +3140,7 @@
       <c r="B40" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="14" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3139,22 +3148,25 @@
       <c r="B41" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="14" t="s">
         <v>120</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3175,41 +3187,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="11"/>
+    <col min="1" max="1" width="10.8333333333333" style="13"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="15.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="6.83333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3217,7 +3229,7 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3232,7 +3244,7 @@
       <c r="F14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="19" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3240,114 +3252,114 @@
       <c r="A15" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="23">
         <v>41065</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="24">
         <v>24</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="24">
         <v>0</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="23">
         <v>41078</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="24">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="24">
         <v>250</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="24">
         <v>120</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="17">
         <f>(E16-E15)/F16*60</f>
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="23">
         <v>41092</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="24">
         <v>12</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D19" si="0">C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="24">
         <v>480</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="25">
         <v>135</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="17">
         <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
         <v>102.222222222222</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="23">
         <v>41106</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="24">
         <v>6</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="24">
         <v>740</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="25">
         <v>160</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="17">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="23">
         <v>41120</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="24">
         <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="24">
         <v>1100</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="25">
         <v>145</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="17">
         <f t="shared" si="1"/>
         <v>148.965517241379</v>
       </c>
@@ -3371,19 +3383,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="10.8333333333333" style="11"/>
+    <col min="2" max="2" width="10.8333333333333" style="13"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="14.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="7.16666666666667" customWidth="1"/>
     <col min="6" max="6" width="6.83333333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3398,7 +3410,7 @@
       <c r="F1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3406,7 +3418,7 @@
       <c r="A2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="16">
         <v>42270</v>
       </c>
       <c r="C2" s="10">
@@ -3417,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="18"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="16">
         <v>42256</v>
       </c>
       <c r="C3" s="10">
@@ -3436,56 +3448,56 @@
       <c r="F3" s="10">
         <v>150</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="21">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>138</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="20"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="16">
         <v>42165</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="20"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>139</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="20"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="14"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3501,7 +3513,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3513,7 +3525,7 @@
     <col min="6" max="6" width="9.41666666666667" customWidth="1"/>
     <col min="7" max="7" width="9.08333333333333" customWidth="1"/>
     <col min="8" max="8" width="9.83333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.8333333333333" style="11"/>
+    <col min="9" max="9" width="10.8333333333333" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3541,7 +3553,7 @@
       <c r="H1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="15" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3570,7 +3582,7 @@
       <c r="H2">
         <v>20</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3599,7 +3611,7 @@
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3628,7 +3640,7 @@
       <c r="H4">
         <v>20</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3657,7 +3669,7 @@
       <c r="H5">
         <v>30</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3686,7 +3698,7 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3715,7 +3727,7 @@
       <c r="H7">
         <v>30</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3744,7 +3756,7 @@
       <c r="H8">
         <v>20</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3773,7 +3785,7 @@
       <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3802,15 +3814,15 @@
       <c r="H10">
         <v>40</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="16">
         <v>42285</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>120</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -3825,13 +3837,19 @@
       <c r="F11">
         <v>60</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>54</v>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11" s="16">
+        <v>42285</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="2:2">
@@ -3839,17 +3857,17 @@
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" ht="38" customHeight="1" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -3857,12 +3875,12 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" ht="25.5" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3877,8 +3895,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3917,7 +3935,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -3936,8 +3954,9 @@
       <c r="F2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -3956,8 +3975,9 @@
       <c r="F3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -3976,8 +3996,9 @@
       <c r="F4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -3996,8 +4017,9 @@
       <c r="F5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -4016,8 +4038,9 @@
       <c r="F6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -4036,8 +4059,9 @@
       <c r="F7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -4056,8 +4080,17 @@
       <c r="F8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -4076,8 +4109,17 @@
       <c r="F9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -4096,8 +4138,9 @@
       <c r="F10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -4116,6 +4159,7 @@
       <c r="F11">
         <v>30</v>
       </c>
+      <c r="I11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4228,7 +4272,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H63" sqref="H62:H63"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -4690,29 +4734,29 @@
     </row>
     <row r="42" ht="31.5" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" ht="31.5" spans="1:3">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="17310" windowHeight="12270" tabRatio="606" activeTab="1"/>
+    <workbookView windowWidth="17310" windowHeight="12270" tabRatio="606"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="201">
   <si>
     <t>Initials</t>
   </si>
@@ -685,8 +685,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,14 +730,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -745,11 +738,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -760,15 +753,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,19 +769,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,7 +814,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -842,13 +842,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,13 +860,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,19 +884,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,13 +944,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,97 +1016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,9 +1032,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,6 +1061,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,26 +1104,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1127,16 +1118,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1148,13 +1148,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1163,115 +1163,115 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1297,11 +1297,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2494,7 +2494,7 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2654,8 +2654,8 @@
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2990,7 +2990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3003,8 +3003,11 @@
       <c r="D20" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3016,6 +3019,9 @@
       </c>
       <c r="D21" s="10" t="s">
         <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3052,7 +3058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3065,60 +3071,117 @@
       <c r="D24" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>3</v>
+      </c>
       <c r="B25" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
+      <c r="D25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>3</v>
+      </c>
       <c r="B26" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="27" spans="2:3">
+      <c r="D26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>3</v>
+      </c>
       <c r="B27" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C27" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="2:3">
+      <c r="D27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>3</v>
+      </c>
       <c r="B28" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="2:3">
+      <c r="D28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>3</v>
+      </c>
       <c r="B29" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="30" spans="2:3">
+      <c r="D29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>3</v>
+      </c>
       <c r="B30" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>96</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3126,7 +3189,7 @@
       <c r="B32" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3134,7 +3197,7 @@
       <c r="B33" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3142,7 +3205,7 @@
       <c r="B34" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3150,7 +3213,7 @@
       <c r="B35" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3158,7 +3221,7 @@
       <c r="B36" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3166,7 +3229,7 @@
       <c r="B37" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3174,7 +3237,7 @@
       <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3182,7 +3245,7 @@
       <c r="B39" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3190,7 +3253,7 @@
       <c r="B40" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3198,7 +3261,7 @@
       <c r="B41" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3209,7 +3272,7 @@
       <c r="B42" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D42" s="10" t="s">
@@ -3237,7 +3300,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="12"/>
+    <col min="1" max="1" width="10.8333333333333" style="13"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="15.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
@@ -3246,32 +3309,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3340,7 +3403,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>135</v>
       </c>
       <c r="B17" s="21">
@@ -3365,7 +3428,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B18" s="21">
@@ -3390,7 +3453,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B19" s="21">
@@ -3433,7 +3496,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="10.8333333333333" style="12"/>
+    <col min="2" max="2" width="10.8333333333333" style="13"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="14.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="7.16666666666667" customWidth="1"/>
@@ -3479,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -3505,7 +3568,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>135</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -3528,7 +3591,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="15">
@@ -3541,7 +3604,7 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -3587,7 +3650,7 @@
     <col min="6" max="6" width="9.41666666666667" customWidth="1"/>
     <col min="7" max="7" width="9.08333333333333" customWidth="1"/>
     <col min="8" max="8" width="9.83333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.8333333333333" style="12"/>
+    <col min="9" max="9" width="10.8333333333333" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3884,7 +3947,7 @@
       <c r="A11" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>120</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -3958,7 +4021,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E2" sqref="E2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4022,7 +4085,7 @@
       <c r="H2">
         <v>30</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4051,7 +4114,7 @@
       <c r="H3">
         <v>30</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4080,7 +4143,7 @@
       <c r="H4">
         <v>30</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4109,7 +4172,7 @@
       <c r="H5">
         <v>30</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4138,7 +4201,7 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4167,7 +4230,7 @@
       <c r="H7">
         <v>50</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4196,7 +4259,7 @@
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4225,7 +4288,7 @@
       <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4254,7 +4317,7 @@
       <c r="H10">
         <v>40</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4283,7 +4346,7 @@
       <c r="H11">
         <v>30</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4331,10 +4394,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4369,6 +4432,236 @@
       </c>
       <c r="I1" s="9" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4383,7 +4676,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4431,7 +4724,7 @@
   <sheetPr/>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="19440" windowHeight="11550" tabRatio="606" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18795" windowHeight="12270" tabRatio="606" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -623,13 +623,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="m/d"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -671,27 +671,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -699,7 +684,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,31 +712,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -758,38 +750,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,9 +780,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,43 +832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,7 +862,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,19 +946,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,19 +982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,55 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,6 +1017,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1044,30 +1053,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1079,15 +1064,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,6 +1085,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1117,155 +1102,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1287,35 +1287,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2543,7 +2537,7 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
@@ -2560,7 +2554,7 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
@@ -2577,7 +2571,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
@@ -2594,7 +2588,7 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
@@ -2631,7 +2625,7 @@
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -3044,7 +3038,7 @@
       <c r="B28" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3052,7 +3046,7 @@
       <c r="B29" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3060,7 +3054,7 @@
       <c r="B30" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3068,7 +3062,7 @@
       <c r="B31" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3076,7 +3070,7 @@
       <c r="B32" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3084,7 +3078,7 @@
       <c r="B33" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3092,7 +3086,7 @@
       <c r="B34" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3100,7 +3094,7 @@
       <c r="B35" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3108,7 +3102,7 @@
       <c r="B36" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3116,7 +3110,7 @@
       <c r="B37" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3124,7 +3118,7 @@
       <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3132,7 +3126,7 @@
       <c r="B39" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3140,7 +3134,7 @@
       <c r="B40" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3148,7 +3142,7 @@
       <c r="B41" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3159,7 +3153,7 @@
       <c r="B42" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>120</v>
       </c>
       <c r="D42" s="10" t="s">
@@ -3187,41 +3181,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="13"/>
+    <col min="1" max="1" width="10.8333333333333" style="12"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="15.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="6.83333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3229,7 +3223,7 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3244,7 +3238,7 @@
       <c r="F14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3252,114 +3246,114 @@
       <c r="A15" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="21">
         <v>41065</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="22">
         <v>24</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="22">
         <v>0</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="21">
         <v>41078</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="22">
         <v>250</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <v>120</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <f>(E16-E15)/F16*60</f>
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="21">
         <v>41092</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>12</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D19" si="0">C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="22">
         <v>480</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="23">
         <v>135</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
         <v>102.222222222222</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="21">
         <v>41106</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <v>6</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="22">
         <v>740</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="23">
         <v>160</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="21">
         <v>41120</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="22">
         <v>1100</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="23">
         <v>145</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <f t="shared" si="1"/>
         <v>148.965517241379</v>
       </c>
@@ -3377,25 +3371,25 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="10.8333333333333" style="13"/>
+    <col min="2" max="2" width="10.8333333333333" style="12"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="14.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="7.16666666666667" customWidth="1"/>
     <col min="6" max="6" width="6.83333333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="17" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3410,7 +3404,7 @@
       <c r="F1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3418,7 +3412,7 @@
       <c r="A2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>42270</v>
       </c>
       <c r="C2" s="10">
@@ -3429,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="20"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>42256</v>
       </c>
       <c r="C3" s="10">
@@ -3444,60 +3438,62 @@
       <c r="D3" s="10">
         <v>10</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10">
+        <v>187</v>
+      </c>
       <c r="F3" s="10">
-        <v>150</v>
-      </c>
-      <c r="G3" s="21">
-        <v>46</v>
+        <v>270</v>
+      </c>
+      <c r="G3" s="19">
+        <v>41.6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>138</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>42165</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>139</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="22"/>
+      <c r="G7" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3513,7 +3509,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3525,7 +3521,7 @@
     <col min="6" max="6" width="9.41666666666667" customWidth="1"/>
     <col min="7" max="7" width="9.08333333333333" customWidth="1"/>
     <col min="8" max="8" width="9.83333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.8333333333333" style="13"/>
+    <col min="9" max="9" width="10.8333333333333" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3553,7 +3549,7 @@
       <c r="H1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3582,7 +3578,7 @@
       <c r="H2">
         <v>20</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>42285</v>
       </c>
     </row>
@@ -3611,7 +3607,7 @@
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>42285</v>
       </c>
     </row>
@@ -3640,7 +3636,7 @@
       <c r="H4">
         <v>20</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>42285</v>
       </c>
     </row>
@@ -3669,7 +3665,7 @@
       <c r="H5">
         <v>30</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>42285</v>
       </c>
     </row>
@@ -3698,7 +3694,7 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>42285</v>
       </c>
     </row>
@@ -3727,7 +3723,7 @@
       <c r="H7">
         <v>30</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>42285</v>
       </c>
     </row>
@@ -3756,7 +3752,7 @@
       <c r="H8">
         <v>20</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>42285</v>
       </c>
     </row>
@@ -3785,7 +3781,7 @@
       <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>42285</v>
       </c>
     </row>
@@ -3814,7 +3810,7 @@
       <c r="H10">
         <v>40</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>42285</v>
       </c>
     </row>
@@ -3822,7 +3818,7 @@
       <c r="A11" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>120</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -3843,9 +3839,14 @@
       <c r="H11">
         <v>50</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>42285</v>
       </c>
+    </row>
+    <row r="12" spans="7:9">
+      <c r="G12" s="12"/>
+      <c r="H12"/>
+      <c r="I12"/>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
@@ -3954,7 +3955,7 @@
       <c r="F2">
         <v>30</v>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
@@ -3975,7 +3976,7 @@
       <c r="F3">
         <v>30</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
@@ -3996,7 +3997,7 @@
       <c r="F4">
         <v>30</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -4017,7 +4018,7 @@
       <c r="F5">
         <v>30</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
@@ -4038,7 +4039,7 @@
       <c r="F6">
         <v>30</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
@@ -4059,7 +4060,7 @@
       <c r="F7">
         <v>30</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
@@ -4086,7 +4087,7 @@
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4115,7 +4116,7 @@
       <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4138,7 +4139,7 @@
       <c r="F10">
         <v>40</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
@@ -4159,7 +4160,7 @@
       <c r="F11">
         <v>30</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="17310" windowHeight="12270" tabRatio="606"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="606" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -634,11 +634,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="m/d"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="m/d"/>
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="25">
@@ -679,7 +679,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,15 +694,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,7 +723,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,24 +760,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,19 +776,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -792,23 +799,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,6 +809,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,49 +842,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,91 +866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +890,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,7 +926,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,27 +1030,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1061,15 +1050,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,17 +1084,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,145 +1133,145 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,15 +1301,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2494,7 +2494,7 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -4402,7 +4402,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="28.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:9">
@@ -4724,8 +4724,8 @@
   <sheetPr/>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -5020,7 +5020,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" ht="110.25" spans="1:3">
+    <row r="27" ht="126" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>89</v>
       </c>

--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dachu\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43FD5CCB-941E-484B-93A6-093BA9F54BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="606" activeTab="8"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="606" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,20 @@
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="14" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="202">
   <si>
     <t>Initials</t>
   </si>
@@ -626,22 +640,21 @@
   </si>
   <si>
     <t>其他可以再参考下overview</t>
+  </si>
+  <si>
+    <t>Refactoring to add listing functionality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="m/d"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="m/d"/>
+    <numFmt numFmtId="168" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -673,155 +686,11 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -836,192 +705,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1029,249 +718,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,91 +751,48 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1405,28 +812,25 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" c:formatCode="m/d/yyyy">
+                <c:pt idx="0">
                   <c:v>41065</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="m/d/yyyy">
+                <c:pt idx="1">
                   <c:v>41078</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="m/d/yyyy">
+                <c:pt idx="2">
                   <c:v>41092</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="m/d/yyyy">
+                <c:pt idx="3">
                   <c:v>41106</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="m/d/yyyy">
+                <c:pt idx="4">
                   <c:v>41120</c:v>
                 </c:pt>
               </c:numCache>
@@ -1457,6 +861,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A0F-4926-9276-B3D519DAB1C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1478,7 +887,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1496,6 +905,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-469476192"/>
@@ -1530,6 +940,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-469478512"/>
@@ -1548,6 +959,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1559,9 +971,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1581,27 +993,24 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Burndown!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" c:formatCode="m/d">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>9/24</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="m/d">
+                <c:pt idx="1">
                   <c:v>9/10</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="m/d">
+                <c:pt idx="2">
                   <c:v>23/10</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="m/d">
+                <c:pt idx="3">
                   <c:v>6/11</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="m/d">
+                <c:pt idx="4">
                   <c:v>20/11</c:v>
                 </c:pt>
               </c:strCache>
@@ -1626,6 +1035,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8137-44F2-B302-C78398629D7A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1640,14 +1054,14 @@
         <c:axId val="-467596544"/>
         <c:axId val="-467594224"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="-467596544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1665,6 +1079,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-467594224"/>
@@ -1672,8 +1087,8 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="-467594224"/>
         <c:scaling>
@@ -1700,6 +1115,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-467596544"/>
@@ -1718,6 +1134,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1729,7 +1146,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1743,14 +1160,20 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="825500" y="3561080"/>
-        <a:ext cx="4740910" cy="2617470"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1773,9 +1196,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>160867</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangular Callout 2"/>
+        <xdr:cNvPr id="3" name="Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1816,7 +1245,6 @@
             <a:rPr lang="en-US" baseline="0"/>
             <a:t> # team members * 4 sprints * </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1842,9 +1270,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangular Callout 3"/>
+        <xdr:cNvPr id="4" name="Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1900,9 +1334,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>135467</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangular Callout 4"/>
+        <xdr:cNvPr id="5" name="Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1962,9 +1402,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangular Callout 5"/>
+        <xdr:cNvPr id="6" name="Rectangular Callout 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2001,14 +1447,12 @@
             <a:rPr lang="en-US"/>
             <a:t>Total </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US"/>
             <a:t>LOC</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2027,9 +1471,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangular Callout 6"/>
+        <xdr:cNvPr id="7" name="Rectangular Callout 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2089,9 +1539,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>143932</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangular Callout 7"/>
+        <xdr:cNvPr id="8" name="Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2138,7 +1594,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2152,14 +1608,20 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1663700" y="1456055"/>
-        <a:ext cx="5172710" cy="2617470"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2486,27 +1948,27 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.83333333333333" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" customWidth="1"/>
+    <col min="2" max="2" width="7.765625" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" customWidth="1"/>
+    <col min="4" max="5" width="20.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +2002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="1:5">
+    <row r="4" spans="1:5" ht="14.5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2557,7 +2019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="1:5">
+    <row r="5" spans="1:5" ht="14.5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2574,7 +2036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:5">
+    <row r="6" spans="1:5" ht="14.5">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2591,7 +2053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="13.5" spans="1:5">
+    <row r="7" spans="1:5" ht="14.5">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2608,7 +2070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="1:5">
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2617,57 +2079,51 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="jdai11@stevens.edu"/>
-    <hyperlink ref="D5" r:id="rId2" display="tchu1@stevens.edu"/>
-    <hyperlink ref="D6" r:id="rId3" display="ylei13@stevens.edu"/>
-    <hyperlink ref="D7" r:id="rId4" display="zzhan42@stevens.edu"/>
-    <hyperlink ref="D4" r:id="rId5" display="josh.pirog@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.48333333333333" customWidth="1"/>
-    <col min="2" max="2" width="7.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="29.25" customWidth="1"/>
-    <col min="4" max="4" width="6.66666666666667" style="10" customWidth="1"/>
-    <col min="5" max="5" width="7.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="6.4609375" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" customWidth="1"/>
+    <col min="3" max="3" width="29.23046875" customWidth="1"/>
+    <col min="4" max="4" width="6.69140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="7.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3177,7 +2633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>97</v>
       </c>
@@ -3185,7 +2641,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
         <v>99</v>
       </c>
@@ -3193,7 +2649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>101</v>
       </c>
@@ -3201,7 +2657,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>103</v>
       </c>
@@ -3209,7 +2665,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>105</v>
       </c>
@@ -3217,7 +2673,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="1:5">
       <c r="B36" t="s">
         <v>107</v>
       </c>
@@ -3225,7 +2681,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="1:5">
       <c r="B37" t="s">
         <v>109</v>
       </c>
@@ -3233,7 +2689,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="1:5">
       <c r="B38" t="s">
         <v>111</v>
       </c>
@@ -3241,7 +2697,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="1:5">
       <c r="B39" t="s">
         <v>113</v>
       </c>
@@ -3249,7 +2705,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="1:5">
       <c r="B40" t="s">
         <v>115</v>
       </c>
@@ -3257,7 +2713,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>117</v>
       </c>
@@ -3284,61 +2740,59 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="13"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="6.83333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="16" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="13"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" customWidth="1"/>
+    <col min="4" max="4" width="12.3046875" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:7">
       <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:7">
+    <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -3399,7 +2853,7 @@
       </c>
       <c r="G16" s="16">
         <f>(E16-E15)/F16*60</f>
-        <v>125</v>
+        <v>125.00000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3424,7 +2878,7 @@
       </c>
       <c r="G17" s="16">
         <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
-        <v>102.222222222222</v>
+        <v>102.22222222222223</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3474,37 +2928,35 @@
       </c>
       <c r="G19" s="16">
         <f t="shared" si="1"/>
-        <v>148.965517241379</v>
+        <v>148.9655172413793</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.8333333333333" style="13"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="14.4166666666667" customWidth="1"/>
-    <col min="5" max="5" width="7.16666666666667" customWidth="1"/>
-    <col min="6" max="6" width="6.83333333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.84375" style="13"/>
+    <col min="3" max="3" width="20.4609375" customWidth="1"/>
+    <col min="4" max="4" width="14.3828125" customWidth="1"/>
+    <col min="5" max="5" width="7.15234375" customWidth="1"/>
+    <col min="6" max="6" width="6.84375" customWidth="1"/>
+    <col min="7" max="7" width="13.765625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3616,7 +3068,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:7">
       <c r="B7" s="15"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3626,31 +3078,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.83333333333333" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="9.41666666666667" customWidth="1"/>
-    <col min="7" max="7" width="9.08333333333333" customWidth="1"/>
-    <col min="8" max="8" width="9.83333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.8333333333333" style="13"/>
+    <col min="1" max="1" width="8.84375" customWidth="1"/>
+    <col min="2" max="2" width="24.4609375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.69140625" customWidth="1"/>
+    <col min="5" max="5" width="8.4609375" customWidth="1"/>
+    <col min="6" max="6" width="9.3828125" customWidth="1"/>
+    <col min="7" max="7" width="9.07421875" customWidth="1"/>
+    <col min="8" max="8" width="9.84375" customWidth="1"/>
+    <col min="9" max="9" width="10.84375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3972,25 +3422,25 @@
         <v>42285</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:9">
       <c r="B13" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:9">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:9">
       <c r="B15" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:9">
       <c r="B16" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" ht="38" customHeight="1" spans="2:2">
+    <row r="17" spans="2:2" ht="38" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>148</v>
       </c>
@@ -4003,35 +3453,33 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" ht="25.5" spans="2:2">
+    <row r="21" spans="2:2" ht="27">
       <c r="B21" s="2" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="7.83333333333333" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="23.4609375" customWidth="1"/>
+    <col min="3" max="3" width="7.84375" customWidth="1"/>
+    <col min="4" max="4" width="7.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="17" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4350,20 +3798,20 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:9">
       <c r="B14" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:9">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:9">
       <c r="B16" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" ht="25.5" spans="2:2">
+    <row r="17" spans="2:2" ht="27">
       <c r="B17" s="2" t="s">
         <v>153</v>
       </c>
@@ -4379,33 +3827,31 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" ht="51" spans="2:2">
+    <row r="21" spans="2:2" ht="54">
       <c r="B21" s="2" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="28.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="28.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4481,11 +3927,8 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>15</v>
@@ -4666,25 +4109,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="13.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="16" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4715,26 +4156,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="28.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.15234375" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4745,7 +4184,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" ht="31.5" spans="1:3">
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -4756,7 +4195,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:3">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -4767,7 +4206,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:3">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -4778,7 +4217,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" ht="31.5" spans="1:3">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -4789,7 +4228,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:3">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -4800,7 +4239,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:3">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -4811,7 +4250,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" ht="47.25" spans="1:3">
+    <row r="8" spans="1:3" ht="45">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -4822,7 +4261,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" ht="31.5" spans="1:3">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -4833,7 +4272,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" ht="31.5" spans="1:3">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -4844,7 +4283,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" ht="31.5" spans="1:3">
+    <row r="11" spans="1:3" ht="30">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -4855,7 +4294,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" ht="31.5" spans="1:3">
+    <row r="12" spans="1:3" ht="30">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -4866,7 +4305,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" ht="47.25" spans="1:3">
+    <row r="13" spans="1:3" ht="45">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -4877,7 +4316,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" ht="63" spans="1:3">
+    <row r="14" spans="1:3" ht="45">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -4888,7 +4327,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" ht="31.5" spans="1:3">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -4899,7 +4338,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="1:3">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -4910,7 +4349,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" ht="31.5" spans="1:3">
+    <row r="17" spans="1:3" ht="30">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -4921,7 +4360,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="1:3">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -4932,7 +4371,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="1:3">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -4943,7 +4382,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="1:3">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -4954,7 +4393,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" ht="31.5" spans="1:3">
+    <row r="21" spans="1:3" ht="30">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -4965,7 +4404,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" ht="31.5" spans="1:3">
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -4976,7 +4415,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" ht="31.5" spans="1:3">
+    <row r="23" spans="1:3" ht="30">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -4987,7 +4426,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" ht="31.5" spans="1:3">
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -4998,7 +4437,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" ht="47.25" spans="1:3">
+    <row r="25" spans="1:3" ht="45">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -5009,7 +4448,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" ht="31.5" spans="1:3">
+    <row r="26" spans="1:3" ht="30">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -5020,7 +4459,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" ht="126" spans="1:3">
+    <row r="27" spans="1:3" ht="105">
       <c r="A27" s="6" t="s">
         <v>89</v>
       </c>
@@ -5031,7 +4470,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" ht="15.75" spans="1:3">
+    <row r="28" spans="1:3" ht="15">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -5042,7 +4481,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" ht="31.5" spans="1:3">
+    <row r="29" spans="1:3" ht="30">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -5053,7 +4492,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" ht="15.75" spans="1:3">
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -5064,7 +4503,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" ht="15.75" spans="1:3">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -5075,7 +4514,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" ht="31.5" spans="1:3">
+    <row r="32" spans="1:3" ht="30">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -5086,7 +4525,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" ht="15.75" spans="1:3">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -5097,7 +4536,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" ht="31.5" spans="1:3">
+    <row r="34" spans="1:3" ht="30">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -5108,7 +4547,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" ht="47.25" spans="1:3">
+    <row r="35" spans="1:3" ht="30">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -5119,7 +4558,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" ht="31.5" spans="1:3">
+    <row r="36" spans="1:3" ht="30">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -5130,7 +4569,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" ht="31.5" spans="1:3">
+    <row r="37" spans="1:3" ht="30">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -5141,7 +4580,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" ht="31.5" spans="1:3">
+    <row r="38" spans="1:3" ht="30">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -5152,7 +4591,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" ht="31.5" spans="1:3">
+    <row r="39" spans="1:3" ht="30">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -5163,7 +4602,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" ht="31.5" spans="1:3">
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -5174,7 +4613,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" ht="31.5" spans="1:3">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -5185,7 +4624,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" ht="31.5" spans="1:3">
+    <row r="42" spans="1:3" ht="30">
       <c r="A42" s="6" t="s">
         <v>196</v>
       </c>
@@ -5196,7 +4635,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" ht="31.5" spans="1:3">
+    <row r="43" spans="1:3" ht="30">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -5207,14 +4646,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:3">
       <c r="B44" s="8" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dachu\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43FD5CCB-941E-484B-93A6-093BA9F54BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="606" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21675" windowHeight="12270" tabRatio="606" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -24,15 +18,7 @@
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="14" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -504,6 +490,9 @@
     <t>Communicate with other members as early as possible if there are some problems.</t>
   </si>
   <si>
+    <t>Refactoring to add listing functionality</t>
+  </si>
+  <si>
     <t>Story Description</t>
   </si>
   <si>
@@ -640,21 +629,21 @@
   </si>
   <si>
     <t>其他可以再参考下overview</t>
-  </si>
-  <si>
-    <t>Refactoring to add listing functionality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="m/d"/>
-    <numFmt numFmtId="168" formatCode="0.00_);[Red]\(0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="m/d"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -686,11 +675,155 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,12 +838,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -718,14 +1031,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -751,48 +1303,88 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -812,25 +1404,28 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="m/d/yyyy">
                   <c:v>41065</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="m/d/yyyy">
                   <c:v>41078</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="m/d/yyyy">
                   <c:v>41092</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="m/d/yyyy">
                   <c:v>41106</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="m/d/yyyy">
                   <c:v>41120</c:v>
                 </c:pt>
               </c:numCache>
@@ -861,11 +1456,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9A0F-4926-9276-B3D519DAB1C6}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -887,7 +1477,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -905,7 +1495,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-469476192"/>
@@ -940,7 +1529,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-469478512"/>
@@ -959,7 +1547,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -971,9 +1558,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -993,24 +1580,27 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Burndown!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0" c:formatCode="m/d">
                   <c:v>9/24</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="m/d">
                   <c:v>9/10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="m/d">
                   <c:v>23/10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="m/d">
                   <c:v>6/11</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="m/d">
                   <c:v>20/11</c:v>
                 </c:pt>
               </c:strCache>
@@ -1035,11 +1625,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8137-44F2-B302-C78398629D7A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1054,14 +1639,14 @@
         <c:axId val="-467596544"/>
         <c:axId val="-467594224"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="-467596544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1079,7 +1664,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-467594224"/>
@@ -1087,8 +1671,8 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="-467594224"/>
         <c:scaling>
@@ -1115,7 +1699,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-467596544"/>
@@ -1134,7 +1717,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1146,7 +1728,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1160,20 +1742,14 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="825500" y="3561080"/>
+        <a:ext cx="4740910" cy="2617470"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1196,15 +1772,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>160867</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangular Callout 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Rectangular Callout 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1245,6 +1815,7 @@
             <a:rPr lang="en-US" baseline="0"/>
             <a:t> # team members * 4 sprints * </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1270,15 +1841,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangular Callout 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Rectangular Callout 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1334,15 +1899,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>135467</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangular Callout 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Rectangular Callout 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1402,15 +1961,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangular Callout 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Rectangular Callout 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1447,12 +2000,14 @@
             <a:rPr lang="en-US"/>
             <a:t>Total </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US"/>
             <a:t>LOC</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1471,15 +2026,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangular Callout 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Rectangular Callout 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1539,15 +2088,9 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>143932</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangular Callout 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Rectangular Callout 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1594,7 +2137,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1608,20 +2151,14 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="1663700" y="1456055"/>
+        <a:ext cx="5172710" cy="2617470"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1948,27 +2485,27 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="7.84375" customWidth="1"/>
-    <col min="2" max="2" width="7.765625" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" customWidth="1"/>
-    <col min="4" max="5" width="20.4609375" customWidth="1"/>
+    <col min="1" max="1" width="7.83333333333333" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2002,7 +2539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.5">
+    <row r="4" ht="13.5" spans="1:5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2012,14 +2549,14 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.5">
+    <row r="5" ht="13.5" spans="1:5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2029,14 +2566,14 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.5">
+    <row r="6" ht="13.5" spans="1:5">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2046,14 +2583,14 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.5">
+    <row r="7" ht="13.5" spans="1:5">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2063,14 +2600,14 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="4:5">
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2079,51 +2616,57 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
+  <sortState ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D3" r:id="rId1" display="jdai11@stevens.edu"/>
+    <hyperlink ref="D5" r:id="rId2" display="tchu1@stevens.edu"/>
+    <hyperlink ref="D6" r:id="rId3" display="ylei13@stevens.edu"/>
+    <hyperlink ref="D7" r:id="rId4" display="zzhan42@stevens.edu"/>
+    <hyperlink ref="D4" r:id="rId5" display="josh.pirog@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A41"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="6.4609375" customWidth="1"/>
-    <col min="2" max="2" width="7.69140625" customWidth="1"/>
-    <col min="3" max="3" width="29.23046875" customWidth="1"/>
-    <col min="4" max="4" width="6.69140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" customWidth="1"/>
+    <col min="1" max="1" width="6.48333333333333" customWidth="1"/>
+    <col min="2" max="2" width="7.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
+    <col min="4" max="4" width="6.66666666666667" style="10" customWidth="1"/>
+    <col min="5" max="5" width="7.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2310,10 +2853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>3</v>
-      </c>
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
         <v>58</v>
       </c>
@@ -2460,7 +3000,7 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2477,7 +3017,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2579,7 +3119,7 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2596,7 +3136,7 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2633,7 +3173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="2:3">
       <c r="B31" t="s">
         <v>97</v>
       </c>
@@ -2641,7 +3181,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="2:3">
       <c r="B32" t="s">
         <v>99</v>
       </c>
@@ -2649,7 +3189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="2:3">
       <c r="B33" t="s">
         <v>101</v>
       </c>
@@ -2657,7 +3197,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="2:3">
       <c r="B34" t="s">
         <v>103</v>
       </c>
@@ -2665,7 +3205,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="2:3">
       <c r="B35" t="s">
         <v>105</v>
       </c>
@@ -2673,7 +3213,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="2:3">
       <c r="B36" t="s">
         <v>107</v>
       </c>
@@ -2681,7 +3221,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="2:3">
       <c r="B37" t="s">
         <v>109</v>
       </c>
@@ -2689,7 +3229,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="2:3">
       <c r="B38" t="s">
         <v>111</v>
       </c>
@@ -2697,7 +3237,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="2:3">
       <c r="B39" t="s">
         <v>113</v>
       </c>
@@ -2705,7 +3245,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="2:3">
       <c r="B40" t="s">
         <v>115</v>
       </c>
@@ -2713,7 +3253,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="2:3">
       <c r="B41" t="s">
         <v>117</v>
       </c>
@@ -2740,59 +3280,61 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="13"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" customWidth="1"/>
-    <col min="4" max="4" width="12.3046875" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="10.8333333333333" style="13"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="6.83333333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:1">
       <c r="A1" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:1">
       <c r="A2" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:1">
       <c r="A3" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:1">
       <c r="A5" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:1">
       <c r="A6" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:1">
       <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1">
+    <row r="14" s="1" customFormat="1" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -2819,86 +3361,86 @@
       <c r="A15" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>41065</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>24</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <v>0</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>41078</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <v>250</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>120</v>
       </c>
       <c r="G16" s="16">
         <f>(E16-E15)/F16*60</f>
-        <v>125.00000000000001</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>41092</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>12</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D19" si="0">C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>480</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>135</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
-        <v>102.22222222222223</v>
+        <v>102.222222222222</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>41106</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>6</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>740</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>160</v>
       </c>
       <c r="G18" s="16">
@@ -2910,53 +3452,55 @@
       <c r="A19" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>41120</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <v>1100</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>145</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" si="1"/>
-        <v>148.9655172413793</v>
+        <v>148.965517241379</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="10.84375" style="13"/>
-    <col min="3" max="3" width="20.4609375" customWidth="1"/>
-    <col min="4" max="4" width="14.3828125" customWidth="1"/>
-    <col min="5" max="5" width="7.15234375" customWidth="1"/>
-    <col min="6" max="6" width="6.84375" customWidth="1"/>
-    <col min="7" max="7" width="13.765625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.8333333333333" style="13"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="14.4166666666667" customWidth="1"/>
+    <col min="5" max="5" width="7.16666666666667" customWidth="1"/>
+    <col min="6" max="6" width="6.83333333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3009,14 +3553,14 @@
       <c r="D3" s="10">
         <v>10</v>
       </c>
-      <c r="E3" s="10">
-        <v>120</v>
+      <c r="E3">
+        <v>187</v>
       </c>
       <c r="F3" s="10">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="G3" s="19">
-        <v>46</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3038,7 +3582,7 @@
       <c r="F4" s="10">
         <v>300</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>46.4</v>
       </c>
     </row>
@@ -3053,7 +3597,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="20"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
@@ -3066,41 +3610,43 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="15"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B21"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.84375" customWidth="1"/>
-    <col min="2" max="2" width="24.4609375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.69140625" customWidth="1"/>
-    <col min="5" max="5" width="8.4609375" customWidth="1"/>
-    <col min="6" max="6" width="9.3828125" customWidth="1"/>
-    <col min="7" max="7" width="9.07421875" customWidth="1"/>
-    <col min="8" max="8" width="9.84375" customWidth="1"/>
-    <col min="9" max="9" width="10.84375" style="13"/>
+    <col min="1" max="1" width="8.83333333333333" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="9.41666666666667" customWidth="1"/>
+    <col min="7" max="7" width="9.08333333333333" customWidth="1"/>
+    <col min="8" max="8" width="9.83333333333333" customWidth="1"/>
+    <col min="9" max="9" width="10.8333333333333" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3422,25 +3968,35 @@
         <v>42285</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="12" spans="7:8">
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>187</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="2:2">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="2:2">
       <c r="B15" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="38" customHeight="1">
+    <row r="17" ht="38" customHeight="1" spans="2:2">
       <c r="B17" s="2" t="s">
         <v>148</v>
       </c>
@@ -3453,33 +4009,35 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="27">
+    <row r="21" ht="25.5" spans="2:2">
       <c r="B21" s="2" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="23.4609375" customWidth="1"/>
-    <col min="3" max="3" width="7.84375" customWidth="1"/>
-    <col min="4" max="4" width="7.765625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="7.83333333333333" customWidth="1"/>
+    <col min="4" max="4" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" customHeight="1">
+    <row r="1" ht="17" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3798,20 +4356,20 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="2:2">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="27">
+    <row r="17" ht="25.5" spans="2:2">
       <c r="B17" s="2" t="s">
         <v>153</v>
       </c>
@@ -3827,31 +4385,33 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="54">
+    <row r="21" ht="51" spans="2:2">
       <c r="B21" s="2" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="28.3046875" customWidth="1"/>
+    <col min="2" max="2" width="22.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3899,8 +4459,14 @@
       <c r="F2">
         <v>30</v>
       </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3922,13 +4488,19 @@
       <c r="F3">
         <v>30</v>
       </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>35</v>
+      </c>
       <c r="I3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>15</v>
@@ -3942,8 +4514,14 @@
       <c r="F4">
         <v>30</v>
       </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3965,6 +4543,8 @@
       <c r="F5">
         <v>30</v>
       </c>
+      <c r="G5"/>
+      <c r="H5"/>
       <c r="I5" t="s">
         <v>60</v>
       </c>
@@ -4034,8 +4614,14 @@
       <c r="F8">
         <v>30</v>
       </c>
+      <c r="G8">
+        <v>58</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4057,8 +4643,14 @@
       <c r="F9">
         <v>30</v>
       </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4109,23 +4701,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="13.23046875" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" customHeight="1">
+    <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4156,24 +4750,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="28.15234375" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4181,10 +4777,10 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" ht="31.5" spans="1:3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -4192,10 +4788,10 @@
         <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -4203,10 +4799,10 @@
         <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -4214,10 +4810,10 @@
         <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" ht="31.5" spans="1:3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -4225,10 +4821,10 @@
         <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -4236,10 +4832,10 @@
         <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -4247,10 +4843,10 @@
         <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" ht="47.25" spans="1:3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -4258,10 +4854,10 @@
         <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" ht="31.5" spans="1:3">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -4269,10 +4865,10 @@
         <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" ht="31.5" spans="1:3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -4280,10 +4876,10 @@
         <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" ht="31.5" spans="1:3">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -4291,10 +4887,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" ht="31.5" spans="1:3">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -4302,10 +4898,10 @@
         <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" ht="47.25" spans="1:3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -4313,10 +4909,10 @@
         <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" ht="63" spans="1:3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -4324,10 +4920,10 @@
         <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" ht="31.5" spans="1:3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -4335,10 +4931,10 @@
         <v>66</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:3">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -4346,10 +4942,10 @@
         <v>68</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" ht="31.5" spans="1:3">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -4357,10 +4953,10 @@
         <v>70</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:3">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -4368,10 +4964,10 @@
         <v>72</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:3">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -4379,10 +4975,10 @@
         <v>74</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:3">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -4390,10 +4986,10 @@
         <v>76</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" ht="31.5" spans="1:3">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -4401,10 +4997,10 @@
         <v>78</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" ht="31.5" spans="1:3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -4412,10 +5008,10 @@
         <v>80</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" ht="31.5" spans="1:3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -4423,10 +5019,10 @@
         <v>82</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" ht="31.5" spans="1:3">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -4434,10 +5030,10 @@
         <v>84</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" ht="47.25" spans="1:3">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -4445,10 +5041,10 @@
         <v>86</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" ht="31.5" spans="1:3">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -4456,10 +5052,10 @@
         <v>88</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="105">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" ht="110.25" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>89</v>
       </c>
@@ -4467,10 +5063,10 @@
         <v>90</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="1:3">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -4478,10 +5074,10 @@
         <v>92</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" ht="31.5" spans="1:3">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -4489,10 +5085,10 @@
         <v>94</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="1:3">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -4500,10 +5096,10 @@
         <v>96</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" spans="1:3">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -4511,10 +5107,10 @@
         <v>98</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" ht="31.5" spans="1:3">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -4522,10 +5118,10 @@
         <v>100</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="1:3">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -4533,10 +5129,10 @@
         <v>102</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" ht="31.5" spans="1:3">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -4544,10 +5140,10 @@
         <v>104</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" ht="47.25" spans="1:3">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -4555,10 +5151,10 @@
         <v>106</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" ht="31.5" spans="1:3">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -4566,10 +5162,10 @@
         <v>108</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" ht="31.5" spans="1:3">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -4577,10 +5173,10 @@
         <v>110</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" ht="31.5" spans="1:3">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -4588,10 +5184,10 @@
         <v>112</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" ht="31.5" spans="1:3">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -4599,10 +5195,10 @@
         <v>114</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" ht="31.5" spans="1:3">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -4610,10 +5206,10 @@
         <v>116</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" ht="31.5" spans="1:3">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -4621,21 +5217,21 @@
         <v>118</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" ht="31.5" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" ht="31.5" spans="1:3">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -4643,16 +5239,17 @@
         <v>120</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
       <c r="B44" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="21675" windowHeight="12270" tabRatio="606" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="22095" windowHeight="12270" tabRatio="606" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,13 @@
     <sheet name="Sprint3" sheetId="5" r:id="rId7"/>
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="203">
   <si>
     <t>Initials</t>
   </si>
@@ -205,81 +204,81 @@
     <t>No bigamy</t>
   </si>
   <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
     <t>coding</t>
   </si>
   <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>Male last names</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>No marriages to descendants</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
     <t>US24</t>
   </si>
   <si>
@@ -388,6 +387,12 @@
     <t>Reject illegitimate dates</t>
   </si>
   <si>
+    <t>US00</t>
+  </si>
+  <si>
+    <t>Refactoring to add listing functionality</t>
+  </si>
+  <si>
     <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
   </si>
   <si>
@@ -488,9 +493,6 @@
   </si>
   <si>
     <t>Communicate with other members as early as possible if there are some problems.</t>
-  </si>
-  <si>
-    <t>Refactoring to add listing functionality</t>
   </si>
   <si>
     <t>Story Description</t>
@@ -639,9 +641,9 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="m/d"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -681,35 +683,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -724,8 +697,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,14 +734,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -755,53 +741,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,6 +758,68 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,19 +846,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,25 +912,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,13 +978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,13 +996,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,85 +1020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,30 +1039,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,6 +1077,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1118,162 +1131,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2632,36 +2634,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.48333333333333" customWidth="1"/>
-    <col min="2" max="2" width="7.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="36.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="6.66666666666667" style="10" customWidth="1"/>
     <col min="5" max="5" width="7.66666666666667" customWidth="1"/>
   </cols>
@@ -2853,18 +2839,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
         <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>59</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2872,10 +2852,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>10</v>
@@ -2889,10 +2869,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
         <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>10</v>
@@ -2906,10 +2886,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>5</v>
@@ -2923,10 +2903,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>5</v>
@@ -2940,10 +2920,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
         <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>15</v>
@@ -2957,10 +2937,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>25</v>
@@ -2974,10 +2954,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>25</v>
@@ -2991,10 +2971,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
         <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>25</v>
@@ -3008,10 +2988,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
         <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>25</v>
@@ -3025,10 +3005,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
         <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>15</v>
@@ -3042,10 +3022,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
         <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>82</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>20</v>
@@ -3059,16 +3039,16 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3085,7 +3065,7 @@
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3102,7 +3082,7 @@
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3153,7 +3133,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3170,7 +3150,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -3275,6 +3255,23 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3306,32 +3303,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
@@ -3339,27 +3336,27 @@
         <v>32</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" s="20">
         <v>41065</v>
@@ -3375,7 +3372,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B16" s="20">
         <v>41078</v>
@@ -3400,7 +3397,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B17" s="20">
         <v>41092</v>
@@ -3425,7 +3422,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B18" s="20">
         <v>41106</v>
@@ -3450,7 +3447,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B19" s="20">
         <v>41120</v>
@@ -3505,27 +3502,27 @@
         <v>32</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2" s="15">
         <v>42270</v>
@@ -3542,7 +3539,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" s="15">
         <v>42256</v>
@@ -3565,10 +3562,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C4" s="10">
         <v>21</v>
@@ -3588,7 +3585,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B5" s="15">
         <v>42165</v>
@@ -3601,10 +3598,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3634,7 +3631,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3663,19 +3660,19 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3912,10 +3909,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
         <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>20</v>
@@ -3968,19 +3965,9 @@
         <v>42285</v>
       </c>
     </row>
-    <row r="12" spans="7:8">
-      <c r="G12">
-        <f>SUM(G2:G11)</f>
-        <v>187</v>
-      </c>
-      <c r="H12">
-        <f>SUM(H2:H11)</f>
-        <v>270</v>
-      </c>
-    </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="2:2">
@@ -3988,17 +3975,17 @@
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" ht="38" customHeight="1" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -4006,12 +3993,12 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" ht="25.5" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4051,33 +4038,33 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -4092,21 +4079,21 @@
         <v>30</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
         <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -4121,7 +4108,7 @@
         <v>30</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4135,7 +4122,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -4150,7 +4137,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4164,7 +4151,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -4179,21 +4166,21 @@
         <v>30</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
         <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -4208,21 +4195,21 @@
         <v>30</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
         <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -4237,21 +4224,21 @@
         <v>50</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
         <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -4266,21 +4253,21 @@
         <v>10</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
         <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -4295,21 +4282,21 @@
         <v>20</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
         <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -4324,21 +4311,21 @@
         <v>40</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
         <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -4353,12 +4340,12 @@
         <v>30</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -4366,12 +4353,12 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" ht="25.5" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -4382,12 +4369,12 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" ht="51" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4402,8 +4389,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4425,33 +4412,33 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -4471,16 +4458,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -4498,15 +4485,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -4526,16 +4516,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -4543,10 +4533,8 @@
       <c r="F5">
         <v>30</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4560,7 +4548,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -4569,7 +4557,7 @@
         <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4583,7 +4571,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -4592,7 +4580,7 @@
         <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4606,7 +4594,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -4635,7 +4623,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -4664,7 +4652,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -4672,8 +4660,14 @@
       <c r="F10">
         <v>40</v>
       </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4687,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -4695,8 +4689,14 @@
       <c r="F11">
         <v>30</v>
       </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4733,19 +4733,19 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4759,8 +4759,8 @@
   <sheetPr/>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -4777,7 +4777,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" ht="31.5" spans="1:3">
@@ -4788,7 +4788,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:3">
@@ -4799,7 +4799,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
@@ -4810,7 +4810,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" ht="31.5" spans="1:3">
@@ -4821,7 +4821,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
@@ -4832,7 +4832,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:3">
@@ -4843,7 +4843,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" ht="47.25" spans="1:3">
@@ -4854,7 +4854,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" ht="31.5" spans="1:3">
@@ -4865,7 +4865,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" ht="31.5" spans="1:3">
@@ -4876,7 +4876,7 @@
         <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" ht="31.5" spans="1:3">
@@ -4887,7 +4887,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" ht="31.5" spans="1:3">
@@ -4898,139 +4898,139 @@
         <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" ht="47.25" spans="1:3">
       <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" ht="63" spans="1:3">
       <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" ht="31.5" spans="1:3">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" ht="31.5" spans="1:3">
       <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:3">
       <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
         <v>71</v>
       </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:3">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:3">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
         <v>75</v>
       </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" ht="31.5" spans="1:3">
       <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" ht="31.5" spans="1:3">
       <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
         <v>79</v>
       </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" ht="31.5" spans="1:3">
       <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" ht="31.5" spans="1:3">
       <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" ht="47.25" spans="1:3">
@@ -5041,7 +5041,7 @@
         <v>86</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" ht="31.5" spans="1:3">
@@ -5052,7 +5052,7 @@
         <v>88</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" ht="110.25" spans="1:3">
@@ -5063,7 +5063,7 @@
         <v>90</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" ht="15.75" spans="1:3">
@@ -5074,7 +5074,7 @@
         <v>92</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" ht="31.5" spans="1:3">
@@ -5085,7 +5085,7 @@
         <v>94</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="1:3">
@@ -5096,7 +5096,7 @@
         <v>96</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" ht="15.75" spans="1:3">
@@ -5107,7 +5107,7 @@
         <v>98</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" ht="31.5" spans="1:3">
@@ -5118,7 +5118,7 @@
         <v>100</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:3">
@@ -5129,7 +5129,7 @@
         <v>102</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" ht="31.5" spans="1:3">
@@ -5140,7 +5140,7 @@
         <v>104</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" ht="47.25" spans="1:3">
@@ -5151,7 +5151,7 @@
         <v>106</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" ht="31.5" spans="1:3">
@@ -5162,7 +5162,7 @@
         <v>108</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" ht="31.5" spans="1:3">
@@ -5173,7 +5173,7 @@
         <v>110</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" ht="31.5" spans="1:3">
@@ -5184,7 +5184,7 @@
         <v>112</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" ht="31.5" spans="1:3">
@@ -5195,7 +5195,7 @@
         <v>114</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" ht="31.5" spans="1:3">
@@ -5206,7 +5206,7 @@
         <v>116</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" ht="31.5" spans="1:3">
@@ -5217,18 +5217,18 @@
         <v>118</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" ht="31.5" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" ht="31.5" spans="1:3">
@@ -5239,12 +5239,12 @@
         <v>120</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="22095" windowHeight="12270" tabRatio="606" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="22095" windowHeight="12270" tabRatio="768" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="206">
   <si>
     <t>Initials</t>
   </si>
@@ -493,6 +493,15 @@
   </si>
   <si>
     <t>Communicate with other members as early as possible if there are some problems.</t>
+  </si>
+  <si>
+    <t>Contact frequently to understand each other's progrecess.</t>
+  </si>
+  <si>
+    <t>Be acutious about deleting individual or family records.</t>
+  </si>
+  <si>
+    <t>Coding</t>
   </si>
   <si>
     <t>Story Description</t>
@@ -638,12 +647,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="m/d"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -683,6 +692,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -691,6 +722,51 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -705,43 +781,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,42 +810,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,16 +826,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,85 +861,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,61 +891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,13 +909,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,45 +1040,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1094,16 +1064,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,6 +1092,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,155 +1125,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1302,25 +1311,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2551,7 +2561,7 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
@@ -2568,7 +2578,7 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
@@ -2585,7 +2595,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
@@ -2602,7 +2612,7 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
@@ -2640,7 +2650,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A31" sqref="A31:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -3293,41 +3303,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="13"/>
+    <col min="1" max="1" width="10.8333333333333" style="14"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="15.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="6.83333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3335,7 +3345,7 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>129</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3350,7 +3360,7 @@
       <c r="F14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="19" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3358,114 +3368,114 @@
       <c r="A15" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="21">
         <v>41065</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="22">
         <v>24</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="22">
         <v>0</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="21">
         <v>41078</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="22">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="22">
         <v>250</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="22">
         <v>120</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="17">
         <f>(E16-E15)/F16*60</f>
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="21">
         <v>41092</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="22">
         <v>12</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D19" si="0">C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="22">
         <v>480</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="23">
         <v>135</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="17">
         <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
         <v>102.222222222222</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="21">
         <v>41106</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="22">
         <v>6</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="22">
         <v>740</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="23">
         <v>160</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="17">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="21">
         <v>41120</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="22">
         <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="22">
         <v>1100</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="23">
         <v>145</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="17">
         <f t="shared" si="1"/>
         <v>148.965517241379</v>
       </c>
@@ -3489,19 +3499,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="10.8333333333333" style="13"/>
+    <col min="2" max="2" width="10.8333333333333" style="14"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="14.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="7.16666666666667" customWidth="1"/>
     <col min="6" max="6" width="6.83333333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="16" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3516,7 +3526,7 @@
       <c r="F1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3524,7 +3534,7 @@
       <c r="A2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <v>42270</v>
       </c>
       <c r="C2" s="10">
@@ -3535,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>42256</v>
       </c>
       <c r="C3" s="10">
@@ -3556,15 +3566,15 @@
       <c r="F3" s="10">
         <v>270</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="20">
         <v>41.6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>140</v>
       </c>
       <c r="C4" s="10">
@@ -3579,43 +3589,43 @@
       <c r="F4" s="10">
         <v>300</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="20">
         <v>46.4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>42165</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="15"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="19"/>
+      <c r="G7" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3643,7 +3653,7 @@
     <col min="6" max="6" width="9.41666666666667" customWidth="1"/>
     <col min="7" max="7" width="9.08333333333333" customWidth="1"/>
     <col min="8" max="8" width="9.83333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.8333333333333" style="13"/>
+    <col min="9" max="9" width="10.8333333333333" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3671,7 +3681,7 @@
       <c r="H1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3700,7 +3710,7 @@
       <c r="H2">
         <v>20</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3729,7 +3739,7 @@
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3758,7 +3768,7 @@
       <c r="H4">
         <v>20</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3787,7 +3797,7 @@
       <c r="H5">
         <v>30</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3816,7 +3826,7 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3845,7 +3855,7 @@
       <c r="H7">
         <v>30</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3874,7 +3884,7 @@
       <c r="H8">
         <v>20</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3903,7 +3913,7 @@
       <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3932,7 +3942,7 @@
       <c r="H10">
         <v>40</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3961,7 +3971,7 @@
       <c r="H11">
         <v>50</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -4014,7 +4024,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F11"/>
+      <selection activeCell="B14" sqref="B14:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4064,7 +4074,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -4078,7 +4088,7 @@
       <c r="H2">
         <v>30</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4093,7 +4103,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -4107,7 +4117,7 @@
       <c r="H3">
         <v>30</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4122,7 +4132,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -4136,7 +4146,7 @@
       <c r="H4">
         <v>30</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4151,7 +4161,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -4165,7 +4175,7 @@
       <c r="H5">
         <v>30</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4180,7 +4190,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -4194,7 +4204,7 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4209,7 +4219,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -4223,7 +4233,7 @@
       <c r="H7">
         <v>50</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4238,7 +4248,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -4252,7 +4262,7 @@
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="13" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4267,7 +4277,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -4281,7 +4291,7 @@
       <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="13" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4296,7 +4306,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -4310,7 +4320,7 @@
       <c r="H10">
         <v>40</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4325,7 +4335,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -4339,7 +4349,7 @@
       <c r="H11">
         <v>30</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4387,10 +4397,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4438,7 +4448,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -4452,8 +4462,8 @@
       <c r="H2">
         <v>50</v>
       </c>
-      <c r="I2" t="s">
-        <v>39</v>
+      <c r="I2" s="12">
+        <v>42313</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4467,7 +4477,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -4481,8 +4491,8 @@
       <c r="H3">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
-        <v>39</v>
+      <c r="I3" s="12">
+        <v>42313</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4496,7 +4506,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -4510,8 +4520,8 @@
       <c r="H4">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
-        <v>39</v>
+      <c r="I4" s="12">
+        <v>42313</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4525,7 +4535,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -4533,8 +4543,8 @@
       <c r="F5">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
-        <v>84</v>
+      <c r="I5" s="12">
+        <v>42313</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4548,7 +4558,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -4556,8 +4566,8 @@
       <c r="F6">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
-        <v>84</v>
+      <c r="I6" s="12">
+        <v>42313</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4571,7 +4581,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -4579,8 +4589,8 @@
       <c r="F7">
         <v>30</v>
       </c>
-      <c r="I7" t="s">
-        <v>84</v>
+      <c r="I7" s="12">
+        <v>42313</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4594,7 +4604,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -4608,8 +4618,8 @@
       <c r="H8">
         <v>40</v>
       </c>
-      <c r="I8" t="s">
-        <v>39</v>
+      <c r="I8" s="12">
+        <v>42313</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4623,7 +4633,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -4637,8 +4647,8 @@
       <c r="H9">
         <v>5</v>
       </c>
-      <c r="I9" t="s">
-        <v>39</v>
+      <c r="I9" s="12">
+        <v>42313</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4652,7 +4662,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -4666,8 +4676,8 @@
       <c r="H10">
         <v>20</v>
       </c>
-      <c r="I10" t="s">
-        <v>39</v>
+      <c r="I10" s="12">
+        <v>42313</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4681,7 +4691,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -4695,12 +4705,47 @@
       <c r="H11">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
-        <v>39</v>
+      <c r="I11" s="12">
+        <v>42313</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" ht="38.25" spans="2:2">
+      <c r="B16" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" ht="38.25" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4708,15 +4753,15 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="26.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
@@ -4748,8 +4793,269 @@
         <v>146</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4777,7 +5083,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" ht="31.5" spans="1:3">
@@ -4788,7 +5094,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:3">
@@ -4799,7 +5105,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
@@ -4810,7 +5116,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" ht="31.5" spans="1:3">
@@ -4821,7 +5127,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
@@ -4832,7 +5138,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:3">
@@ -4843,7 +5149,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" ht="47.25" spans="1:3">
@@ -4854,7 +5160,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" ht="31.5" spans="1:3">
@@ -4865,7 +5171,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" ht="31.5" spans="1:3">
@@ -4876,7 +5182,7 @@
         <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" ht="31.5" spans="1:3">
@@ -4887,7 +5193,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" ht="31.5" spans="1:3">
@@ -4898,7 +5204,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" ht="47.25" spans="1:3">
@@ -4909,7 +5215,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" ht="63" spans="1:3">
@@ -4920,7 +5226,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" ht="31.5" spans="1:3">
@@ -4931,7 +5237,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
@@ -4942,7 +5248,7 @@
         <v>67</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" ht="31.5" spans="1:3">
@@ -4953,7 +5259,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:3">
@@ -4964,7 +5270,7 @@
         <v>71</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:3">
@@ -4975,7 +5281,7 @@
         <v>73</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:3">
@@ -4986,7 +5292,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" ht="31.5" spans="1:3">
@@ -4997,7 +5303,7 @@
         <v>77</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" ht="31.5" spans="1:3">
@@ -5008,7 +5314,7 @@
         <v>79</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" ht="31.5" spans="1:3">
@@ -5019,7 +5325,7 @@
         <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" ht="31.5" spans="1:3">
@@ -5030,7 +5336,7 @@
         <v>83</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" ht="47.25" spans="1:3">
@@ -5041,7 +5347,7 @@
         <v>86</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" ht="31.5" spans="1:3">
@@ -5052,7 +5358,7 @@
         <v>88</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" ht="110.25" spans="1:3">
@@ -5063,7 +5369,7 @@
         <v>90</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" ht="15.75" spans="1:3">
@@ -5074,7 +5380,7 @@
         <v>92</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" ht="31.5" spans="1:3">
@@ -5085,7 +5391,7 @@
         <v>94</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="1:3">
@@ -5096,7 +5402,7 @@
         <v>96</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" ht="15.75" spans="1:3">
@@ -5107,7 +5413,7 @@
         <v>98</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" ht="31.5" spans="1:3">
@@ -5118,7 +5424,7 @@
         <v>100</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:3">
@@ -5129,7 +5435,7 @@
         <v>102</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" ht="31.5" spans="1:3">
@@ -5140,7 +5446,7 @@
         <v>104</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" ht="47.25" spans="1:3">
@@ -5151,7 +5457,7 @@
         <v>106</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" ht="31.5" spans="1:3">
@@ -5162,7 +5468,7 @@
         <v>108</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" ht="31.5" spans="1:3">
@@ -5173,7 +5479,7 @@
         <v>110</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" ht="31.5" spans="1:3">
@@ -5184,7 +5490,7 @@
         <v>112</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" ht="31.5" spans="1:3">
@@ -5195,7 +5501,7 @@
         <v>114</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" ht="31.5" spans="1:3">
@@ -5206,7 +5512,7 @@
         <v>116</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" ht="31.5" spans="1:3">
@@ -5217,18 +5523,18 @@
         <v>118</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" ht="31.5" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" ht="31.5" spans="1:3">
@@ -5239,12 +5545,12 @@
         <v>120</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="22095" windowHeight="12270" tabRatio="768" activeTab="6"/>
+    <workbookView windowWidth="20820" windowHeight="12270" tabRatio="768" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -648,11 +648,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="m/d"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -692,14 +692,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,14 +736,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,7 +758,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,7 +773,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,20 +803,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -812,23 +821,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,7 +855,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,169 +1029,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,6 +1040,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1054,59 +1069,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,164 +1092,199 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1315,22 +1315,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -4400,12 +4400,12 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="22.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:9">
@@ -4566,6 +4566,12 @@
       <c r="F6">
         <v>30</v>
       </c>
+      <c r="G6">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
       <c r="I6" s="12">
         <v>42313</v>
       </c>
@@ -4587,6 +4593,12 @@
         <v>20</v>
       </c>
       <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
         <v>30</v>
       </c>
       <c r="I7" s="12">
@@ -5065,8 +5077,8 @@
   <sheetPr/>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="2"/>

--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="20820" windowHeight="12270" tabRatio="768" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="24180" windowHeight="12270" tabRatio="768"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="206">
   <si>
     <t>Initials</t>
   </si>
@@ -204,6 +204,9 @@
     <t>No bigamy</t>
   </si>
   <si>
+    <t>coding</t>
+  </si>
+  <si>
     <t>US12</t>
   </si>
   <si>
@@ -274,9 +277,6 @@
   </si>
   <si>
     <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>coding</t>
   </si>
   <si>
     <t>US24</t>
@@ -647,12 +647,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="m/d"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -681,6 +681,14 @@
       <sz val="10"/>
       <name val="SimSun"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -735,15 +743,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,9 +773,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,17 +805,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,17 +819,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,13 +829,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,7 +861,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,13 +933,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,145 +1029,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,17 +1076,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,13 +1117,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,152 +1143,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1315,23 +1315,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1632,6 +1633,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2505,8 +2509,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2534,7 +2538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="13.5" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2544,7 +2548,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -2578,7 +2582,7 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
@@ -2595,7 +2599,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
@@ -2612,7 +2616,7 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
@@ -2650,7 +2654,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:E41"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2849,12 +2853,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>4</v>
+      </c>
       <c r="B12" t="s">
         <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>59</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2862,10 +2875,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>10</v>
@@ -2879,10 +2892,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>10</v>
@@ -2896,10 +2909,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>5</v>
@@ -2913,10 +2926,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>5</v>
@@ -2930,10 +2943,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>15</v>
@@ -2947,10 +2960,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>25</v>
@@ -2964,10 +2977,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>25</v>
@@ -2981,10 +2994,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>25</v>
@@ -2998,10 +3011,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>25</v>
@@ -3015,10 +3028,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>15</v>
@@ -3032,10 +3045,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>20</v>
@@ -3049,16 +3062,16 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3075,7 +3088,7 @@
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3092,7 +3105,7 @@
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3143,7 +3156,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3160,95 +3173,194 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4</v>
+      </c>
       <c r="B31" t="s">
         <v>97</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="2:3">
+      <c r="D31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4</v>
+      </c>
       <c r="B32" t="s">
         <v>99</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:3">
+      <c r="D32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4</v>
+      </c>
       <c r="B33" t="s">
         <v>101</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="2:3">
+      <c r="D33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>4</v>
+      </c>
       <c r="B34" t="s">
         <v>103</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="35" spans="2:3">
+      <c r="D34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>4</v>
+      </c>
       <c r="B35" t="s">
         <v>105</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="36" spans="2:3">
+      <c r="D35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>4</v>
+      </c>
       <c r="B36" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="2:3">
+      <c r="D36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>4</v>
+      </c>
       <c r="B37" t="s">
         <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="2:3">
+      <c r="D37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>4</v>
+      </c>
       <c r="B38" t="s">
         <v>111</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="2:3">
+      <c r="D38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>4</v>
+      </c>
       <c r="B39" t="s">
         <v>113</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="40" spans="2:3">
+      <c r="D39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>4</v>
+      </c>
       <c r="B40" t="s">
         <v>115</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="41" spans="2:3">
+      <c r="D40" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>4</v>
+      </c>
       <c r="B41" t="s">
         <v>117</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>118</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3494,7 +3606,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -3600,11 +3712,21 @@
       <c r="B5" s="16">
         <v>42165</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="20"/>
+      <c r="C5" s="10">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10">
+        <v>245</v>
+      </c>
+      <c r="F5" s="10">
+        <v>245</v>
+      </c>
+      <c r="G5" s="20">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="14" t="s">
@@ -3919,10 +4041,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>20</v>
@@ -4065,10 +4187,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>15</v>
@@ -4094,10 +4216,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>15</v>
@@ -4181,10 +4303,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>10</v>
@@ -4210,10 +4332,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>10</v>
@@ -4239,10 +4361,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>5</v>
@@ -4268,10 +4390,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>5</v>
@@ -4297,10 +4419,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>25</v>
@@ -4326,10 +4448,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>25</v>
@@ -4399,8 +4521,8 @@
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4439,10 +4561,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>25</v>
@@ -4460,7 +4582,7 @@
         <v>50</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I2" s="12">
         <v>42313</v>
@@ -4468,10 +4590,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>25</v>
@@ -4526,10 +4648,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>15</v>
@@ -4542,6 +4664,12 @@
       </c>
       <c r="F5">
         <v>30</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
       </c>
       <c r="I5" s="12">
         <v>42313</v>
@@ -4734,7 +4862,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" ht="38.25" spans="2:2">
+    <row r="16" ht="25.5" spans="2:2">
       <c r="B16" s="2" t="s">
         <v>157</v>
       </c>
@@ -4750,7 +4878,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" ht="38.25" spans="2:2">
+    <row r="20" ht="25.5" spans="2:2">
       <c r="B20" s="2" t="s">
         <v>158</v>
       </c>
@@ -4765,10 +4893,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4812,7 +4940,9 @@
       <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" t="s">
         <v>159</v>
       </c>
@@ -4879,7 +5009,9 @@
       <c r="B5" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" t="s">
         <v>159</v>
       </c>
@@ -4900,7 +5032,9 @@
       <c r="B6" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" t="s">
         <v>159</v>
       </c>
@@ -4921,7 +5055,9 @@
       <c r="B7" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" t="s">
         <v>159</v>
       </c>
@@ -4942,7 +5078,9 @@
       <c r="B8" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" t="s">
         <v>159</v>
       </c>
@@ -4963,7 +5101,9 @@
       <c r="B9" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" t="s">
         <v>159</v>
       </c>
@@ -4984,7 +5124,9 @@
       <c r="B10" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="D10" t="s">
         <v>159</v>
       </c>
@@ -5005,7 +5147,9 @@
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" t="s">
         <v>159</v>
       </c>
@@ -5063,6 +5207,33 @@
       </c>
       <c r="I13" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5221,10 +5392,10 @@
     </row>
     <row r="13" ht="47.25" spans="1:3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>172</v>
@@ -5232,10 +5403,10 @@
     </row>
     <row r="14" ht="63" spans="1:3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>173</v>
@@ -5243,10 +5414,10 @@
     </row>
     <row r="15" ht="31.5" spans="1:3">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>174</v>
@@ -5254,10 +5425,10 @@
     </row>
     <row r="16" ht="15.75" spans="1:3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>175</v>
@@ -5265,10 +5436,10 @@
     </row>
     <row r="17" ht="31.5" spans="1:3">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>176</v>
@@ -5276,10 +5447,10 @@
     </row>
     <row r="18" ht="15.75" spans="1:3">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>177</v>
@@ -5287,10 +5458,10 @@
     </row>
     <row r="19" ht="15.75" spans="1:3">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>178</v>
@@ -5298,10 +5469,10 @@
     </row>
     <row r="20" ht="15.75" spans="1:3">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>179</v>
@@ -5309,10 +5480,10 @@
     </row>
     <row r="21" ht="31.5" spans="1:3">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>180</v>
@@ -5320,10 +5491,10 @@
     </row>
     <row r="22" ht="31.5" spans="1:3">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>181</v>
@@ -5331,10 +5502,10 @@
     </row>
     <row r="23" ht="31.5" spans="1:3">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>182</v>
@@ -5342,10 +5513,10 @@
     </row>
     <row r="24" ht="31.5" spans="1:3">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>183</v>

--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12270" tabRatio="768"/>
+    <workbookView windowWidth="21900" windowHeight="12270" tabRatio="768" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="207">
   <si>
     <t>Initials</t>
   </si>
@@ -204,9 +204,6 @@
     <t>No bigamy</t>
   </si>
   <si>
-    <t>coding</t>
-  </si>
-  <si>
     <t>US12</t>
   </si>
   <si>
@@ -502,6 +499,12 @@
   </si>
   <si>
     <t>Coding</t>
+  </si>
+  <si>
+    <t>Frequenlty comunication with each other; Good programmer privide a prototype for others</t>
+  </si>
+  <si>
+    <t>wait until two days before deadline</t>
   </si>
   <si>
     <t>Story Description</t>
@@ -649,8 +652,8 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
@@ -700,6 +703,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -707,15 +717,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,9 +745,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,6 +754,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -760,21 +777,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,10 +792,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -805,28 +824,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -855,13 +858,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,49 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,85 +888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,13 +906,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,61 +1046,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,11 +1085,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,10 +1149,10 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1158,16 +1161,16 @@
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1179,116 +1182,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1301,8 +1304,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1312,6 +1315,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1636,6 +1642,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,7 +2518,7 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2548,7 +2557,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -2565,7 +2574,7 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
@@ -2582,7 +2591,7 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
@@ -2599,7 +2608,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
@@ -2616,7 +2625,7 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
@@ -2654,7 +2663,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2867,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2875,10 +2884,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>10</v>
@@ -2892,10 +2901,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
         <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>10</v>
@@ -2909,10 +2918,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>5</v>
@@ -2926,10 +2935,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>5</v>
@@ -2943,10 +2952,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
         <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>15</v>
@@ -2960,10 +2969,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>25</v>
@@ -2977,10 +2986,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>25</v>
@@ -2994,10 +3003,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
         <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>25</v>
@@ -3011,10 +3020,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
         <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>25</v>
@@ -3028,10 +3037,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
         <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>15</v>
@@ -3045,10 +3054,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
         <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>82</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>20</v>
@@ -3062,10 +3071,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>15</v>
@@ -3079,10 +3088,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>20</v>
@@ -3096,10 +3105,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>20</v>
@@ -3113,10 +3122,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
         <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>90</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>5</v>
@@ -3130,10 +3139,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>5</v>
@@ -3147,10 +3156,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>10</v>
@@ -3164,10 +3173,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>10</v>
@@ -3181,16 +3190,16 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3198,16 +3207,16 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3215,16 +3224,16 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3232,16 +3241,16 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3249,16 +3258,16 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3266,16 +3275,16 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="D36" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3283,16 +3292,16 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="D37" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3300,16 +3309,16 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3317,16 +3326,16 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3334,16 +3343,16 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3351,16 +3360,16 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3368,10 +3377,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>10</v>
@@ -3385,10 +3394,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
         <v>121</v>
-      </c>
-      <c r="C43" t="s">
-        <v>122</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>15</v>
@@ -3415,179 +3424,179 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="14"/>
+    <col min="1" max="1" width="10.8333333333333" style="15"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="15.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="6.83333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="15" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="14" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="20" t="s">
         <v>133</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="21">
+        <v>134</v>
+      </c>
+      <c r="B15" s="22">
         <v>41065</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="23">
         <v>24</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="23">
         <v>0</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="21">
+        <v>135</v>
+      </c>
+      <c r="B16" s="22">
         <v>41078</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="23">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="23">
         <v>250</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="23">
         <v>120</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="18">
         <f>(E16-E15)/F16*60</f>
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="21">
+      <c r="A17" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="22">
         <v>41092</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="23">
         <v>12</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D19" si="0">C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="23">
         <v>480</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="24">
         <v>135</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="18">
         <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
         <v>102.222222222222</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="21">
+      <c r="A18" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="22">
         <v>41106</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="23">
         <v>6</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="23">
         <v>740</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="24">
         <v>160</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="18">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="21">
+      <c r="A19" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="22">
         <v>41120</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="23">
         <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="23">
         <v>1100</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="24">
         <v>145</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="18">
         <f t="shared" si="1"/>
         <v>148.965517241379</v>
       </c>
@@ -3606,47 +3615,47 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="10.8333333333333" style="14"/>
+    <col min="2" max="2" width="10.8333333333333" style="15"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="14.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="7.16666666666667" customWidth="1"/>
     <col min="6" max="6" width="6.83333333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="17" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>133</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="16">
+        <v>134</v>
+      </c>
+      <c r="B2" s="17">
         <v>42270</v>
       </c>
       <c r="C2" s="10">
@@ -3657,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="16">
+        <v>135</v>
+      </c>
+      <c r="B3" s="17">
         <v>42256</v>
       </c>
       <c r="C3" s="10">
@@ -3678,16 +3687,16 @@
       <c r="F3" s="10">
         <v>270</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="21">
         <v>41.6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>140</v>
+      <c r="A4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="C4" s="10">
         <v>21</v>
@@ -3701,15 +3710,15 @@
       <c r="F4" s="10">
         <v>300</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="21">
         <v>46.4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="17">
         <v>42165</v>
       </c>
       <c r="C5" s="10">
@@ -3724,30 +3733,34 @@
       <c r="F5" s="10">
         <v>245</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="21">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>12</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="20"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3775,7 +3788,7 @@
     <col min="6" max="6" width="9.41666666666667" customWidth="1"/>
     <col min="7" max="7" width="9.08333333333333" customWidth="1"/>
     <col min="8" max="8" width="9.83333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.8333333333333" style="14"/>
+    <col min="9" max="9" width="10.8333333333333" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3792,19 +3805,19 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3832,7 +3845,7 @@
       <c r="H2">
         <v>20</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -3861,7 +3874,7 @@
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -3890,7 +3903,7 @@
       <c r="H4">
         <v>20</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -3919,7 +3932,7 @@
       <c r="H5">
         <v>30</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -3948,7 +3961,7 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -3977,7 +3990,7 @@
       <c r="H7">
         <v>30</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -4006,7 +4019,7 @@
       <c r="H8">
         <v>20</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -4035,16 +4048,16 @@
       <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="17">
         <v>42285</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
         <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>20</v>
@@ -4064,16 +4077,16 @@
       <c r="H10">
         <v>40</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="17">
         <v>42285</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>10</v>
@@ -4093,13 +4106,13 @@
       <c r="H11">
         <v>50</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="17">
         <v>42285</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="2:2">
@@ -4107,17 +4120,17 @@
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" ht="38" customHeight="1" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -4125,12 +4138,12 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" ht="25.5" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4170,27 +4183,27 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>15</v>
@@ -4210,16 +4223,16 @@
       <c r="H2">
         <v>30</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>153</v>
+      <c r="I2" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
         <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>15</v>
@@ -4239,8 +4252,8 @@
       <c r="H3">
         <v>30</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>153</v>
+      <c r="I3" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4268,8 +4281,8 @@
       <c r="H4">
         <v>30</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>153</v>
+      <c r="I4" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4297,16 +4310,16 @@
       <c r="H5">
         <v>30</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>153</v>
+      <c r="I5" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
         <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>10</v>
@@ -4326,16 +4339,16 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>153</v>
+      <c r="I6" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
         <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>10</v>
@@ -4355,16 +4368,16 @@
       <c r="H7">
         <v>50</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>153</v>
+      <c r="I7" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
         <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>5</v>
@@ -4384,16 +4397,16 @@
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>154</v>
+      <c r="I8" s="14" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
         <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>5</v>
@@ -4413,16 +4426,16 @@
       <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>154</v>
+      <c r="I9" s="14" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
         <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>25</v>
@@ -4442,16 +4455,16 @@
       <c r="H10">
         <v>40</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>153</v>
+      <c r="I10" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
         <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>25</v>
@@ -4471,13 +4484,13 @@
       <c r="H11">
         <v>30</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>153</v>
+      <c r="I11" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -4485,12 +4498,12 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" ht="25.5" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -4501,12 +4514,12 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" ht="51" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4544,27 +4557,27 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>25</v>
@@ -4590,10 +4603,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>25</v>
@@ -4619,10 +4632,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
         <v>121</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>15</v>
@@ -4648,10 +4661,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>15</v>
@@ -4677,10 +4690,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>20</v>
@@ -4706,10 +4719,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>20</v>
@@ -4735,10 +4748,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
         <v>89</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>5</v>
@@ -4764,10 +4777,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>5</v>
@@ -4793,10 +4806,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>10</v>
@@ -4822,10 +4835,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>10</v>
@@ -4851,7 +4864,7 @@
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="2:2">
@@ -4859,12 +4872,12 @@
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" ht="25.5" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -4875,12 +4888,12 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" ht="25.5" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4893,10 +4906,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4918,19 +4931,19 @@
         <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4944,7 +4957,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -4952,22 +4965,28 @@
       <c r="F2">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
-        <v>159</v>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" s="12">
+        <v>42314</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -4975,22 +4994,28 @@
       <c r="F3">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
-        <v>159</v>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12">
+        <v>42314</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -4998,22 +5023,22 @@
       <c r="F4">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
-        <v>159</v>
+      <c r="I4" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -5021,22 +5046,22 @@
       <c r="F5">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
-        <v>159</v>
+      <c r="I5" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -5044,22 +5069,22 @@
       <c r="F6">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
-        <v>159</v>
+      <c r="I6" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -5067,22 +5092,22 @@
       <c r="F7">
         <v>30</v>
       </c>
-      <c r="I7" t="s">
-        <v>159</v>
+      <c r="I7" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -5090,22 +5115,22 @@
       <c r="F8">
         <v>30</v>
       </c>
-      <c r="I8" t="s">
-        <v>159</v>
+      <c r="I8" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -5113,22 +5138,22 @@
       <c r="F9">
         <v>30</v>
       </c>
-      <c r="I9" t="s">
-        <v>159</v>
+      <c r="I9" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -5136,22 +5161,22 @@
       <c r="F10">
         <v>30</v>
       </c>
-      <c r="I10" t="s">
-        <v>159</v>
+      <c r="I10" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -5159,22 +5184,22 @@
       <c r="F11">
         <v>30</v>
       </c>
-      <c r="I11" t="s">
-        <v>159</v>
+      <c r="I11" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -5182,22 +5207,28 @@
       <c r="F12">
         <v>30</v>
       </c>
-      <c r="I12" t="s">
-        <v>159</v>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12" s="12">
+        <v>42314</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>15</v>
@@ -5205,13 +5236,13 @@
       <c r="F13">
         <v>15</v>
       </c>
-      <c r="I13" t="s">
-        <v>159</v>
+      <c r="I13" s="12">
+        <v>42314</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -5219,11 +5250,13 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" ht="38.25" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2"/>
@@ -5233,7 +5266,12 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5248,8 +5286,8 @@
   <sheetPr/>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -5266,7 +5304,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" ht="31.5" spans="1:3">
@@ -5277,7 +5315,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:3">
@@ -5288,7 +5326,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
@@ -5299,7 +5337,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" ht="31.5" spans="1:3">
@@ -5310,7 +5348,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
@@ -5321,7 +5359,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:3">
@@ -5332,7 +5370,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" ht="47.25" spans="1:3">
@@ -5343,7 +5381,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" ht="31.5" spans="1:3">
@@ -5354,7 +5392,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" ht="31.5" spans="1:3">
@@ -5365,7 +5403,7 @@
         <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" ht="31.5" spans="1:3">
@@ -5376,7 +5414,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" ht="31.5" spans="1:3">
@@ -5387,353 +5425,353 @@
         <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" ht="47.25" spans="1:3">
       <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" ht="63" spans="1:3">
       <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" ht="31.5" spans="1:3">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" ht="31.5" spans="1:3">
       <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:3">
       <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
         <v>71</v>
       </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:3">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:3">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
         <v>75</v>
       </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" ht="31.5" spans="1:3">
       <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" ht="31.5" spans="1:3">
       <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
         <v>79</v>
       </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" ht="31.5" spans="1:3">
       <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" ht="31.5" spans="1:3">
       <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" ht="47.25" spans="1:3">
       <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" ht="31.5" spans="1:3">
       <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" ht="110.25" spans="1:3">
+      <c r="A27" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" ht="110.25" spans="1:3">
-      <c r="A27" s="6" t="s">
+      <c r="B27" t="s">
         <v>89</v>
       </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
       <c r="C27" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" ht="15.75" spans="1:3">
       <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" ht="31.5" spans="1:3">
       <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="1:3">
       <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" ht="15.75" spans="1:3">
       <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" ht="31.5" spans="1:3">
       <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:3">
       <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="C33" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" ht="31.5" spans="1:3">
       <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="C34" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" ht="47.25" spans="1:3">
       <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="C35" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" ht="31.5" spans="1:3">
       <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="C36" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" ht="31.5" spans="1:3">
       <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="C37" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" ht="31.5" spans="1:3">
       <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="C38" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" ht="31.5" spans="1:3">
       <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="C39" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" ht="31.5" spans="1:3">
       <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="C40" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" ht="31.5" spans="1:3">
       <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="C41" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" ht="31.5" spans="1:3">
-      <c r="A42" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="7" t="s">
         <v>202</v>
       </c>
+      <c r="B42" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="C42" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" ht="31.5" spans="1:3">
       <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="C43" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="21900" windowHeight="12270" tabRatio="768" activeTab="7"/>
+    <workbookView windowWidth="14400" windowHeight="12270" tabRatio="768" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -650,11 +650,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d"/>
     <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
   <fonts count="25">
@@ -705,85 +705,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -800,23 +733,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,7 +771,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,7 +858,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,13 +990,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,151 +1026,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,11 +1046,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,56 +1135,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1146,152 +1146,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1315,21 +1315,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2557,7 +2554,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -2574,7 +2571,7 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
@@ -2591,7 +2588,7 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
@@ -2608,7 +2605,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
@@ -2625,7 +2622,7 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
@@ -3424,41 +3421,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="15"/>
+    <col min="1" max="1" width="10.8333333333333" style="14"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="15.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="6.83333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3466,7 +3463,7 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>128</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3481,7 +3478,7 @@
       <c r="F14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3489,114 +3486,114 @@
       <c r="A15" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>41065</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>24</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>0</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>41078</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>250</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>120</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <f>(E16-E15)/F16*60</f>
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>41092</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>12</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D19" si="0">C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>480</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>135</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
         <v>102.222222222222</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>41106</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>6</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>740</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <v>160</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>41120</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>1100</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>145</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <f t="shared" si="1"/>
         <v>148.965517241379</v>
       </c>
@@ -3620,19 +3617,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="10.8333333333333" style="15"/>
+    <col min="2" max="2" width="10.8333333333333" style="14"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="14.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="7.16666666666667" customWidth="1"/>
     <col min="6" max="6" width="6.83333333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3647,7 +3644,7 @@
       <c r="F1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3655,7 +3652,7 @@
       <c r="A2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>42270</v>
       </c>
       <c r="C2" s="10">
@@ -3666,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>42256</v>
       </c>
       <c r="C3" s="10">
@@ -3687,15 +3684,15 @@
       <c r="F3" s="10">
         <v>270</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <v>41.6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="10">
@@ -3710,15 +3707,15 @@
       <c r="F4" s="10">
         <v>300</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <v>46.4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>42165</v>
       </c>
       <c r="C5" s="10">
@@ -3733,15 +3730,15 @@
       <c r="F5" s="10">
         <v>245</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>140</v>
       </c>
       <c r="C6" s="10">
@@ -3752,15 +3749,15 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3788,7 +3785,7 @@
     <col min="6" max="6" width="9.41666666666667" customWidth="1"/>
     <col min="7" max="7" width="9.08333333333333" customWidth="1"/>
     <col min="8" max="8" width="9.83333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.8333333333333" style="15"/>
+    <col min="9" max="9" width="10.8333333333333" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3816,7 +3813,7 @@
       <c r="H1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3845,7 +3842,7 @@
       <c r="H2">
         <v>20</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3874,7 +3871,7 @@
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3903,7 +3900,7 @@
       <c r="H4">
         <v>20</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3932,7 +3929,7 @@
       <c r="H5">
         <v>30</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3961,7 +3958,7 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -3990,7 +3987,7 @@
       <c r="H7">
         <v>30</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -4019,7 +4016,7 @@
       <c r="H8">
         <v>20</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -4048,7 +4045,7 @@
       <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -4077,7 +4074,7 @@
       <c r="H10">
         <v>40</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -4106,7 +4103,7 @@
       <c r="H11">
         <v>50</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>42285</v>
       </c>
     </row>
@@ -4223,7 +4220,7 @@
       <c r="H2">
         <v>30</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4252,7 +4249,7 @@
       <c r="H3">
         <v>30</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4281,7 +4278,7 @@
       <c r="H4">
         <v>30</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4310,7 +4307,7 @@
       <c r="H5">
         <v>30</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4339,7 +4336,7 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4368,7 +4365,7 @@
       <c r="H7">
         <v>50</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4397,7 +4394,7 @@
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4426,7 +4423,7 @@
       <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4455,7 +4452,7 @@
       <c r="H10">
         <v>40</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4484,7 +4481,7 @@
       <c r="H11">
         <v>30</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4908,8 +4905,8 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5023,7 +5020,7 @@
       <c r="F4">
         <v>30</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5046,7 +5043,7 @@
       <c r="F5">
         <v>30</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5069,7 +5066,7 @@
       <c r="F6">
         <v>30</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5092,7 +5089,7 @@
       <c r="F7">
         <v>30</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5115,7 +5112,7 @@
       <c r="F8">
         <v>30</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5138,7 +5135,7 @@
       <c r="F9">
         <v>30</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5161,7 +5158,7 @@
       <c r="F10">
         <v>30</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5184,7 +5181,7 @@
       <c r="F11">
         <v>30</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5235,6 +5232,12 @@
       </c>
       <c r="F13">
         <v>15</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
       </c>
       <c r="I13" s="12">
         <v>42314</v>

--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12270" tabRatio="768" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="18990" windowHeight="12270" tabRatio="768" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="207">
   <si>
     <t>Initials</t>
   </si>
@@ -650,12 +650,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="m/d"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -702,6 +702,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -709,9 +717,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,14 +754,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -741,7 +762,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,7 +784,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,16 +792,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -794,44 +823,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,13 +858,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,7 +876,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,37 +912,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,13 +954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,7 +966,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,13 +996,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,55 +1026,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,6 +1043,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1064,28 +1088,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,193 +1124,174 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1315,25 +1315,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
@@ -2554,7 +2557,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -2571,7 +2574,7 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
@@ -2588,7 +2591,7 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
@@ -2605,7 +2608,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
@@ -2622,7 +2625,7 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
@@ -2659,7 +2662,7 @@
   <sheetPr/>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A21" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -3421,41 +3424,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="14"/>
+    <col min="1" max="1" width="10.8333333333333" style="15"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="15.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="6.83333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3463,7 +3466,7 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>128</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3478,7 +3481,7 @@
       <c r="F14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="20" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3486,114 +3489,114 @@
       <c r="A15" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="22">
         <v>41065</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="23">
         <v>24</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="23">
         <v>0</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="22">
         <v>41078</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="23">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="23">
         <v>250</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="23">
         <v>120</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="18">
         <f>(E16-E15)/F16*60</f>
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="22">
         <v>41092</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="23">
         <v>12</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D19" si="0">C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="23">
         <v>480</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="24">
         <v>135</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="18">
         <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
         <v>102.222222222222</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="22">
         <v>41106</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="23">
         <v>6</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="23">
         <v>740</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="24">
         <v>160</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="18">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="22">
         <v>41120</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="23">
         <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="23">
         <v>1100</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="24">
         <v>145</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="18">
         <f t="shared" si="1"/>
         <v>148.965517241379</v>
       </c>
@@ -3617,19 +3620,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="10.8333333333333" style="14"/>
+    <col min="2" max="2" width="10.8333333333333" style="15"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="14.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="7.16666666666667" customWidth="1"/>
     <col min="6" max="6" width="6.83333333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="17" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3644,7 +3647,7 @@
       <c r="F1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3652,7 +3655,7 @@
       <c r="A2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="17">
         <v>42270</v>
       </c>
       <c r="C2" s="10">
@@ -3663,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="17">
         <v>42256</v>
       </c>
       <c r="C3" s="10">
@@ -3684,15 +3687,15 @@
       <c r="F3" s="10">
         <v>270</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="21">
         <v>41.6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="10">
@@ -3707,15 +3710,15 @@
       <c r="F4" s="10">
         <v>300</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="21">
         <v>46.4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="17">
         <v>42165</v>
       </c>
       <c r="C5" s="10">
@@ -3730,15 +3733,15 @@
       <c r="F5" s="10">
         <v>245</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="21">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>140</v>
       </c>
       <c r="C6" s="10">
@@ -3749,15 +3752,15 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="20"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3785,7 +3788,7 @@
     <col min="6" max="6" width="9.41666666666667" customWidth="1"/>
     <col min="7" max="7" width="9.08333333333333" customWidth="1"/>
     <col min="8" max="8" width="9.83333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.8333333333333" style="14"/>
+    <col min="9" max="9" width="10.8333333333333" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3813,7 +3816,7 @@
       <c r="H1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3842,7 +3845,7 @@
       <c r="H2">
         <v>20</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -3871,7 +3874,7 @@
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -3900,7 +3903,7 @@
       <c r="H4">
         <v>20</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -3929,7 +3932,7 @@
       <c r="H5">
         <v>30</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -3958,7 +3961,7 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -3987,7 +3990,7 @@
       <c r="H7">
         <v>30</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -4016,7 +4019,7 @@
       <c r="H8">
         <v>20</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -4045,7 +4048,7 @@
       <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -4074,7 +4077,7 @@
       <c r="H10">
         <v>40</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -4103,7 +4106,7 @@
       <c r="H11">
         <v>50</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="17">
         <v>42285</v>
       </c>
     </row>
@@ -4220,7 +4223,7 @@
       <c r="H2">
         <v>30</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4249,7 +4252,7 @@
       <c r="H3">
         <v>30</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4278,7 +4281,7 @@
       <c r="H4">
         <v>30</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4307,7 +4310,7 @@
       <c r="H5">
         <v>30</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4336,7 +4339,7 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4365,7 +4368,7 @@
       <c r="H7">
         <v>50</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4394,7 +4397,7 @@
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="14" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4423,7 +4426,7 @@
       <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="14" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4452,7 +4455,7 @@
       <c r="H10">
         <v>40</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4481,7 +4484,7 @@
       <c r="H11">
         <v>30</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4905,13 +4908,20 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="26.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="7.41666666666667" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="7.83333333333333" customWidth="1"/>
+    <col min="6" max="6" width="8.83333333333333" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="10.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
@@ -5020,9 +5030,7 @@
       <c r="F4">
         <v>30</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>158</v>
-      </c>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -5043,9 +5051,7 @@
       <c r="F5">
         <v>30</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>158</v>
-      </c>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
@@ -5058,7 +5064,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -5066,8 +5072,14 @@
       <c r="F6">
         <v>30</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>158</v>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6" s="13">
+        <v>42326</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5081,7 +5093,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -5089,8 +5101,14 @@
       <c r="F7">
         <v>30</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>158</v>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" s="13">
+        <v>42326</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5112,9 +5130,7 @@
       <c r="F8">
         <v>30</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>158</v>
-      </c>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
@@ -5135,9 +5151,7 @@
       <c r="F9">
         <v>30</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>158</v>
-      </c>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
@@ -5158,9 +5172,7 @@
       <c r="F10">
         <v>30</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>158</v>
-      </c>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
@@ -5181,9 +5193,7 @@
       <c r="F11">
         <v>30</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>158</v>
-      </c>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
@@ -5290,7 +5300,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="2"/>

--- a/Team_1_Report.xlsx
+++ b/Team_1_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="18990" windowHeight="12270" tabRatio="768" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="14400" windowHeight="12270" tabRatio="768" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="206">
   <si>
     <t>Initials</t>
   </si>
@@ -496,9 +496,6 @@
   </si>
   <si>
     <t>Be acutious about deleting individual or family records.</t>
-  </si>
-  <si>
-    <t>Coding</t>
   </si>
   <si>
     <t>Frequenlty comunication with each other; Good programmer privide a prototype for others</t>
@@ -650,12 +647,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="m/d"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -702,23 +699,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,43 +744,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,15 +759,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,15 +782,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,6 +821,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,19 +855,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,31 +897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,7 +921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,25 +939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +963,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,13 +981,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,37 +1011,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,17 +1043,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,6 +1063,35 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,26 +1111,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,171 +1140,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,22 +1318,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
@@ -3615,7 +3612,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -3750,9 +3747,15 @@
       <c r="D6" s="10">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="21"/>
+      <c r="E6" s="10">
+        <v>250</v>
+      </c>
+      <c r="F6" s="10">
+        <v>250</v>
+      </c>
+      <c r="G6" s="21">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="17"/>
@@ -4908,8 +4911,8 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5022,7 +5025,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -5030,7 +5033,15 @@
       <c r="F4">
         <v>30</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" s="13">
+        <v>42327</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -5043,7 +5054,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -5051,7 +5062,15 @@
       <c r="F5">
         <v>30</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5" s="13">
+        <v>42327</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
@@ -5122,7 +5141,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -5130,7 +5149,15 @@
       <c r="F8">
         <v>30</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8" s="13">
+        <v>42327</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
@@ -5143,7 +5170,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -5151,7 +5178,15 @@
       <c r="F9">
         <v>30</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9" s="13">
+        <v>42327</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
@@ -5164,7 +5199,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -5172,7 +5207,15 @@
       <c r="F10">
         <v>30</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="G10">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10" s="13">
+        <v>42327</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
@@ -5185,7 +5228,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -5193,7 +5236,15 @@
       <c r="F11">
         <v>30</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="13">
+        <v>42327</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
@@ -5253,6 +5304,16 @@
         <v>42314</v>
       </c>
     </row>
+    <row r="14" spans="7:8">
+      <c r="G14">
+        <f>SUM(G2:G13)</f>
+        <v>250</v>
+      </c>
+      <c r="H14">
+        <f>SUM(H2:H13)</f>
+        <v>250</v>
+      </c>
+    </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
         <v>146</v>
@@ -5268,7 +5329,7 @@
     </row>
     <row r="19" ht="38.25" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -5284,7 +5345,7 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5299,8 +5360,8 @@
   <sheetPr/>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -5317,7 +5378,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" ht="31.5" spans="1:3">
@@ -5328,7 +5389,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:3">
@@ -5339,7 +5400,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
@@ -5350,7 +5411,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" ht="31.5" spans="1:3">
@@ -5361,7 +5422,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
@@ -5372,7 +5433,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:3">
@@ -5383,7 +5444,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" ht="47.25" spans="1:3">
@@ -5394,7 +5455,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" ht="31.5" spans="1:3">
@@ -5405,7 +5466,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" ht="31.5" spans="1:3">
@@ -5416,7 +5477,7 @@
         <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" ht="31.5" spans="1:3">
@@ -5427,7 +5488,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" ht="31.5" spans="1:3">
@@ -5438,7 +5499,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" ht="47.25" spans="1:3">
@@ -5449,7 +5510,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" ht="63" spans="1:3">
@@ -5460,7 +5521,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" ht="31.5" spans="1:3">
@@ -5471,7 +5532,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
@@ -5482,7 +5543,7 @@
         <v>67</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" ht="31.5" spans="1:3">
@@ -5493,7 +5554,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:3">
@@ -5504,7 +5565,7 @@
         <v>71</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:3">
@@ -5515,7 +5576,7 @@
         <v>73</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:3">
@@ -5526,7 +5587,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" ht="31.5" spans="1:3">
@@ -5537,7 +5598,7 @@
         <v>77</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" ht="31.5" spans="1:3">
@@ -5548,7 +5609,7 @@
         <v>79</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" ht="31.5" spans="1:3">
@@ -5559,7 +5620,7 @@
         <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" ht="31.5" spans="1:3">
@@ -5570,7 +5631,7 @@
         <v>83</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" ht="47.25" spans="1:3">
@@ -5581,7 +5642,7 @@
         <v>85</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" ht="31.5" spans="1:3">
@@ -5592,7 +5653,7 @@
         <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" ht="110.25" spans="1:3">
@@ -5603,7 +5664,7 @@
         <v>89</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" ht="15.75" spans="1:3">
@@ -5614,7 +5675,7 @@
         <v>91</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" ht="31.5" spans="1:3">
@@ -5625,7 +5686,7 @@
         <v>93</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="1:3">
@@ -5636,7 +5697,7 @@
         <v>95</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" ht="15.75" spans="1:3">
@@ -5647,7 +5708,7 @@
         <v>97</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" ht="31.5" spans="1:3">
@@ -5658,7 +5719,7 @@
         <v>99</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:3">
@@ -5669,7 +5730,7 @@
         <v>101</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" ht="31.5" spans="1:3">
@@ -5680,7 +5741,7 @@
         <v>103</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" ht="47.25" spans="1:3">
@@ -5691,7 +5752,7 @@
         <v>105</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" ht="31.5" spans="1:3">
@@ -5702,7 +5763,7 @@
         <v>107</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" ht="31.5" spans="1:3">
@@ -5713,7 +5774,7 @@
         <v>109</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" ht="31.5" spans="1:3">
@@ -5724,7 +5785,7 @@
         <v>111</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" ht="31.5" spans="1:3">
@@ -5735,7 +5796,7 @@
         <v>113</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" ht="31.5" spans="1:3">
@@ -5746,7 +5807,7 @@
         <v>115</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" ht="31.5" spans="1:3">
@@ -5757,18 +5818,18 @@
         <v>117</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" ht="31.5" spans="1:3">
       <c r="A42" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="43" ht="31.5" spans="1:3">
@@ -5779,12 +5840,12 @@
         <v>119</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
